--- a/data/hotels_by_city/Dallas/Dallas_shard_515.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_515.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="778">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2212 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r585466476-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>10223193</t>
+  </si>
+  <si>
+    <t>585466476</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Clean affordable hotel that's comfortable</t>
+  </si>
+  <si>
+    <t>This hotel was priced right and was very clean and comfortable. My wife thought it had just opened, but it is two years old. The rooms were large with comfortable beds and a big bathroom. Breakfast was good for a quick bite before starting the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>This hotel was priced right and was very clean and comfortable. My wife thought it had just opened, but it is two years old. The rooms were large with comfortable beds and a big bathroom. Breakfast was good for a quick bite before starting the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r561351537-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>561351537</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay in Plano, Texas</t>
+  </si>
+  <si>
+    <t>A new La Quinta has everything you need for a great stay. The property is well designed. The rooms are large and the bathroom is well laid out. The property is very new and super clean. There are no weird smells or mold. The parking lot is right outside the front door and easy access. The hotel has a pool. Free breakfast and free wifi. The staff is very nice and helpful. I had a great stay and will most likely stay here again. It is very close to Legacy Park without the high prices. The housekeeping did a great job. I had no problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>A new La Quinta has everything you need for a great stay. The property is well designed. The rooms are large and the bathroom is well laid out. The property is very new and super clean. There are no weird smells or mold. The parking lot is right outside the front door and easy access. The hotel has a pool. Free breakfast and free wifi. The staff is very nice and helpful. I had a great stay and will most likely stay here again. It is very close to Legacy Park without the high prices. The housekeeping did a great job. I had no problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r584949580-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>584949580</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Very clean, quiet, great location. Beds are very comfortable. Check in and out very easy, carts available at front doors for moving luggage.  A little difficult to find because of construction on that street, we had to circle 3 times, it is behind dance studio same driveway. Breakfast was only mediocre but I would rather have a comfortable room and great staff !MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Very clean, quiet, great location. Beds are very comfortable. Check in and out very easy, carts available at front doors for moving luggage.  A little difficult to find because of construction on that street, we had to circle 3 times, it is behind dance studio same driveway. Breakfast was only mediocre but I would rather have a comfortable room and great staff !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r583414338-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>583414338</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Convenient to Ford Center The Star</t>
+  </si>
+  <si>
+    <t>We were on third floor, could here kids running above us.  Pool is small.  free breakfast below LQ standards. Bar open 5 til 10PM.  Have ok selection in small food section.  Room was clean and very new and modern.  Hotel only 2 years or so old.  Room cleaned daily,  Pantene products.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We were on third floor, could here kids running above us.  Pool is small.  free breakfast below LQ standards. Bar open 5 til 10PM.  Have ok selection in small food section.  Room was clean and very new and modern.  Hotel only 2 years or so old.  Room cleaned daily,  Pantene products.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r583023598-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>583023598</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Everything is like new!</t>
+  </si>
+  <si>
+    <t>The hotel is so nice! The room is impeccable. Close to everything we wanted and needed to do. Breakfast was a hotel buffet breakfast but it was always stocked. The room was cleaned every day of our stay. Great stay! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The hotel is so nice! The room is impeccable. Close to everything we wanted and needed to do. Breakfast was a hotel buffet breakfast but it was always stocked. The room was cleaned every day of our stay. Great stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r582549203-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>582549203</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Great Value. Exceeded Expectations.</t>
+  </si>
+  <si>
+    <t>Needed a place close to Legacy West. La Quinta was perfect. Great value. Great service (super nice people.) I lost my phone and they drove me to Legacy West via shuttle. Went out of their way to make my one night stay excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Needed a place close to Legacy West. La Quinta was perfect. Great value. Great service (super nice people.) I lost my phone and they drove me to Legacy West via shuttle. Went out of their way to make my one night stay excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r581157725-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>581157725</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Impressed</t>
+  </si>
+  <si>
+    <t>I was very impressed with this Hotel.  Hotel was updated and was very nice with bright inviting colors. Rooms were large and spacious with really nice bathrooms.  Staff was nice and accomodating.  I would recommend this hotel to anyone for business or pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very impressed with this Hotel.  Hotel was updated and was very nice with bright inviting colors. Rooms were large and spacious with really nice bathrooms.  Staff was nice and accomodating.  I would recommend this hotel to anyone for business or pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r580835006-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>580835006</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Who Left the Dogs Out?!?</t>
+  </si>
+  <si>
+    <t>Heads up that this hotel is not pet friendly, as are almost all other LaQuintas. At the time we made our reservations, TripAdviser had it listed as pet friendly. I mentioned that at check-in, and the front desk person made a note to let the manager know.  Also, as of today, it is not listed on the pet friendly exceptions on the main LaQuinta website.  Fortunately, I called the hotel to doublecheck the pet policy.  We almost didn’t stay here because of that. Also, the reservation couldn’t be cancelled after the day before, even with a credit card guarantee. Most hotels will offer a slightly (slightly!) higher rate that can be cancelled up to 6pm on the day of check-in. Life happens, and we prefer having an option to cancel if our plans change. If we’d had more time when we were making reservations, we’d have stayed somewhere else. As it was, we waited until the morning of our trip to make reservations.  
+Another reason we like LaQuintas is that there are almost always healthy breakfast choices. I do love that they had hard-boiled eggs, as well as a great fruit salad that included fresh pineapple and diced apples. A minor complaint was that there was no low-fat yogurt; the only yogurt choice was very high in calories and sugars. There were several tea bag choices, but no plain black or green tea, only flavored teas.  
+I also don’t understand...Heads up that this hotel is not pet friendly, as are almost all other LaQuintas. At the time we made our reservations, TripAdviser had it listed as pet friendly. I mentioned that at check-in, and the front desk person made a note to let the manager know.  Also, as of today, it is not listed on the pet friendly exceptions on the main LaQuinta website.  Fortunately, I called the hotel to doublecheck the pet policy.  We almost didn’t stay here because of that. Also, the reservation couldn’t be cancelled after the day before, even with a credit card guarantee. Most hotels will offer a slightly (slightly!) higher rate that can be cancelled up to 6pm on the day of check-in. Life happens, and we prefer having an option to cancel if our plans change. If we’d had more time when we were making reservations, we’d have stayed somewhere else. As it was, we waited until the morning of our trip to make reservations.  Another reason we like LaQuintas is that there are almost always healthy breakfast choices. I do love that they had hard-boiled eggs, as well as a great fruit salad that included fresh pineapple and diced apples. A minor complaint was that there was no low-fat yogurt; the only yogurt choice was very high in calories and sugars. There were several tea bag choices, but no plain black or green tea, only flavored teas.  I also don’t understand why you can’t get LaQuinta reward points if you come to the LQ website from Trip Adviser.  There were business cards in the breakfast room requesting reviews on Trip Adviser. The survey sent from LaQuinta included an option to add a Trip Adviser review. And yet you penalize lodgers who use Trip Adviser to find a hotel? All that said, the rooms were clean, beds were comfortable, staff was nice. (They do need a card in the room that listed the tv channels, as the online tv guide was very cumbersome.) If your plans are fixed such that there’s no chance of cancellation and you are not traveling with a pup, this is a good option.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Heads up that this hotel is not pet friendly, as are almost all other LaQuintas. At the time we made our reservations, TripAdviser had it listed as pet friendly. I mentioned that at check-in, and the front desk person made a note to let the manager know.  Also, as of today, it is not listed on the pet friendly exceptions on the main LaQuinta website.  Fortunately, I called the hotel to doublecheck the pet policy.  We almost didn’t stay here because of that. Also, the reservation couldn’t be cancelled after the day before, even with a credit card guarantee. Most hotels will offer a slightly (slightly!) higher rate that can be cancelled up to 6pm on the day of check-in. Life happens, and we prefer having an option to cancel if our plans change. If we’d had more time when we were making reservations, we’d have stayed somewhere else. As it was, we waited until the morning of our trip to make reservations.  
+Another reason we like LaQuintas is that there are almost always healthy breakfast choices. I do love that they had hard-boiled eggs, as well as a great fruit salad that included fresh pineapple and diced apples. A minor complaint was that there was no low-fat yogurt; the only yogurt choice was very high in calories and sugars. There were several tea bag choices, but no plain black or green tea, only flavored teas.  
+I also don’t understand...Heads up that this hotel is not pet friendly, as are almost all other LaQuintas. At the time we made our reservations, TripAdviser had it listed as pet friendly. I mentioned that at check-in, and the front desk person made a note to let the manager know.  Also, as of today, it is not listed on the pet friendly exceptions on the main LaQuinta website.  Fortunately, I called the hotel to doublecheck the pet policy.  We almost didn’t stay here because of that. Also, the reservation couldn’t be cancelled after the day before, even with a credit card guarantee. Most hotels will offer a slightly (slightly!) higher rate that can be cancelled up to 6pm on the day of check-in. Life happens, and we prefer having an option to cancel if our plans change. If we’d had more time when we were making reservations, we’d have stayed somewhere else. As it was, we waited until the morning of our trip to make reservations.  Another reason we like LaQuintas is that there are almost always healthy breakfast choices. I do love that they had hard-boiled eggs, as well as a great fruit salad that included fresh pineapple and diced apples. A minor complaint was that there was no low-fat yogurt; the only yogurt choice was very high in calories and sugars. There were several tea bag choices, but no plain black or green tea, only flavored teas.  I also don’t understand why you can’t get LaQuinta reward points if you come to the LQ website from Trip Adviser.  There were business cards in the breakfast room requesting reviews on Trip Adviser. The survey sent from LaQuinta included an option to add a Trip Adviser review. And yet you penalize lodgers who use Trip Adviser to find a hotel? All that said, the rooms were clean, beds were comfortable, staff was nice. (They do need a card in the room that listed the tv channels, as the online tv guide was very cumbersome.) If your plans are fixed such that there’s no chance of cancellation and you are not traveling with a pup, this is a good option.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r580730167-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>580730167</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Terrible Customer Service!</t>
+  </si>
+  <si>
+    <t>The rooms were great! But staff was not friendly at all! Also, i forgot to bring toothbrush, toothpaste, deodorant, etc.. hotel did not have any! I have stayed in cheap hotels and they all have them. But the worst thing is the staff they are rude and not helpful. This is my first time in this hotel and last. I started a job that will require me to travel here every other week and i WILL NOT stay here and i would not recommend it to anyone. There are better hotels around.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were great! But staff was not friendly at all! Also, i forgot to bring toothbrush, toothpaste, deodorant, etc.. hotel did not have any! I have stayed in cheap hotels and they all have them. But the worst thing is the staff they are rude and not helpful. This is my first time in this hotel and last. I started a job that will require me to travel here every other week and i WILL NOT stay here and i would not recommend it to anyone. There are better hotels around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r580539098-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>580539098</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Great Find/Location</t>
+  </si>
+  <si>
+    <t>From the welcoming staff, breakfast hostess, superb housekeeping, it far exceeded what I expected.  Have stayed at various hotels in Plano but this has been the best.  They know how to treat their guests.  The genuine smiles are priceless. Thanks to all who made our stay the best ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the welcoming staff, breakfast hostess, superb housekeeping, it far exceeded what I expected.  Have stayed at various hotels in Plano but this has been the best.  They know how to treat their guests.  The genuine smiles are priceless. Thanks to all who made our stay the best ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r580305767-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>580305767</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>The staff and rooms were very nice. It wasn't a spectacular experience but definitely nice to stay for a short visit. The beds were very comfortable and the shower was very nice (however there are not tubs).MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff and rooms were very nice. It wasn't a spectacular experience but definitely nice to stay for a short visit. The beds were very comfortable and the shower was very nice (however there are not tubs).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r578939071-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>578939071</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and well kept, also very modern looking. The staff was welcoming and friendly. We didn't use housekeeping each morning but the ladies were very happy to give us any refills we needed, which was nice. Also, the little city was about 30-40 minutes outside of Dallas which wasn't bad but it was a very cute and quiet neighborhood to stay in. We would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and well kept, also very modern looking. The staff was welcoming and friendly. We didn't use housekeeping each morning but the ladies were very happy to give us any refills we needed, which was nice. Also, the little city was about 30-40 minutes outside of Dallas which wasn't bad but it was a very cute and quiet neighborhood to stay in. We would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r578571803-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>578571803</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Clean and modern</t>
+  </si>
+  <si>
+    <t>This hotel in relatively new and is very modern in its styling and furnishings. The room was fairly large and quite comfortable. It is in close proximity to Baylor Hospital of Plano, making it very convenient for my one night stay while my wife was having surgery.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>This hotel in relatively new and is very modern in its styling and furnishings. The room was fairly large and quite comfortable. It is in close proximity to Baylor Hospital of Plano, making it very convenient for my one night stay while my wife was having surgery.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r577996222-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>577996222</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>This Hotel is realy nice, all clean, has good services, breakfast is awesome, great bedrooms, nice environmnet, and good place to stay for business. The best thing is the shuttle service to ride you 5 mi around for free any time you need!MoreShow less</t>
+  </si>
+  <si>
+    <t>This Hotel is realy nice, all clean, has good services, breakfast is awesome, great bedrooms, nice environmnet, and good place to stay for business. The best thing is the shuttle service to ride you 5 mi around for free any time you need!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r577123993-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>577123993</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Average Hotel</t>
+  </si>
+  <si>
+    <t>New hotel and the property is in a nice location. Couple of complaints though. Pillows were too hard to sleep on. And the breakfast had lots of varieties, but unfortunately were all stale. Would have rather preferred lesser choices but better quality. MoreShow less</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>New hotel and the property is in a nice location. Couple of complaints though. Pillows were too hard to sleep on. And the breakfast had lots of varieties, but unfortunately were all stale. Would have rather preferred lesser choices but better quality. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r577293421-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>577293421</t>
+  </si>
+  <si>
+    <t>Only book the top floor</t>
+  </si>
+  <si>
+    <t>Terrible noise on the floor above me, hardly got any sleep. Other than that, this would have been a nice hotel. The staff was not terribly attentive but not rude either. Bed seemed OK and the room was fairly clean. On a side note, try not to book an ADA room if you value your shower time, as the shower head only raises to about chest level.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Terrible noise on the floor above me, hardly got any sleep. Other than that, this would have been a nice hotel. The staff was not terribly attentive but not rude either. Bed seemed OK and the room was fairly clean. On a side note, try not to book an ADA room if you value your shower time, as the shower head only raises to about chest level.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r576165379-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>576165379</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Comfy Stay</t>
+  </si>
+  <si>
+    <t>The La Quinta Legacy was a good choice for my business trip stay. Economical and very close to my office visit location, the La Quinta was comfortable and close to dining choices, and easy to find from Dallas Love airport! I would highly recommend, and will be staying here in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>The La Quinta Legacy was a good choice for my business trip stay. Economical and very close to my office visit location, the La Quinta was comfortable and close to dining choices, and easy to find from Dallas Love airport! I would highly recommend, and will be staying here in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r575770280-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>575770280</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Great LaQuinta</t>
+  </si>
+  <si>
+    <t>We chose this hotel out of a few others who were a little higher in cost.  We didn't lose out on anything at all.  The room, hotel, and grounds were clean pretty close to brand new looking.  The staff was helpful, and the breakfast was excellent.  We had no issues with our hotel room either.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this hotel out of a few others who were a little higher in cost.  We didn't lose out on anything at all.  The room, hotel, and grounds were clean pretty close to brand new looking.  The staff was helpful, and the breakfast was excellent.  We had no issues with our hotel room either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r575638966-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>575638966</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>Nice hotel close to downtown planoFront desk staff and housekeeping were very pleasant and helpful.Nice place to stay for business.Didn't use shuttle but assuming it dies airport runs. Overall a nice clean property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel close to downtown planoFront desk staff and housekeeping were very pleasant and helpful.Nice place to stay for business.Didn't use shuttle but assuming it dies airport runs. Overall a nice clean property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r575409365-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>575409365</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Do NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>When I called in reservations, Amy had the worst customer service I have EVER come across. Later that day I noticed my cc was charged $355???? I called back and an extremely rude Amy said she doesnt know how to fix it. Talked to the manger Taylor and she said she released the funds on her end but it could take up to 5 days to get the money back!When we arrived I asked for a blanket for the pull out couch and they said they didnt have any. They didnt have any the second night either!!! So I went to the store and bought my own blankets. Breakfast was completely gone both mornings and when we asked when more food would be coming out the girl rolled her eyes and said in 8-10 min if you want to wait....I can say that the cleaning staff were VERY nice, speaking and saying hello every time we saw them. This is a newer hotel and it is run by a staff thst is not trained in customer service and professionalism. As we were leaving MoreShow less</t>
+  </si>
+  <si>
+    <t>When I called in reservations, Amy had the worst customer service I have EVER come across. Later that day I noticed my cc was charged $355???? I called back and an extremely rude Amy said she doesnt know how to fix it. Talked to the manger Taylor and she said she released the funds on her end but it could take up to 5 days to get the money back!When we arrived I asked for a blanket for the pull out couch and they said they didnt have any. They didnt have any the second night either!!! So I went to the store and bought my own blankets. Breakfast was completely gone both mornings and when we asked when more food would be coming out the girl rolled her eyes and said in 8-10 min if you want to wait....I can say that the cleaning staff were VERY nice, speaking and saying hello every time we saw them. This is a newer hotel and it is run by a staff thst is not trained in customer service and professionalism. As we were leaving More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r572463043-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>572463043</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Best hotel ever!</t>
+  </si>
+  <si>
+    <t>Comfort, clean, amenities, breakfast, parking, service! A+ 100! Location and bed and gym and laundry room and in room amenities, shower and water pressure, towels and linens. Nothing more could be expected!MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort, clean, amenities, breakfast, parking, service! A+ 100! Location and bed and gym and laundry room and in room amenities, shower and water pressure, towels and linens. Nothing more could be expected!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r571905815-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>571905815</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>The Taj Majal of Plano</t>
+  </si>
+  <si>
+    <t>First off the cook at this hotel serves a picture perfect breakfast. You can see the pride in his work and I tasted it. Fresh hot coffee in the lobby and its delicious! 29 stars on the food!!!!!  The design of the lobby is great! King bed was like a dreamy cloud that forces you to sleep! Room was spotless!! Bathroom looked like it was a dressing room designed for a movie star with a great mirror and it made me feel like a movie star!! Shower was spotless with the cleanest glass shower dootscI have ever seen and I know clean!!!  No need to stay anywhere else when your in Plano. MoreShow less</t>
+  </si>
+  <si>
+    <t>First off the cook at this hotel serves a picture perfect breakfast. You can see the pride in his work and I tasted it. Fresh hot coffee in the lobby and its delicious! 29 stars on the food!!!!!  The design of the lobby is great! King bed was like a dreamy cloud that forces you to sleep! Room was spotless!! Bathroom looked like it was a dressing room designed for a movie star with a great mirror and it made me feel like a movie star!! Shower was spotless with the cleanest glass shower dootscI have ever seen and I know clean!!!  No need to stay anywhere else when your in Plano. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r571348149-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>571348149</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Top Shelf Accommodations</t>
+  </si>
+  <si>
+    <t>We stayed two nights for a family event.  We use La Quinta because they are pet-friendly.  Our pets are gone but we continue to use La Quinta because they are clean, modern and have a great breakfast bar.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed two nights for a family event.  We use La Quinta because they are pet-friendly.  Our pets are gone but we continue to use La Quinta because they are clean, modern and have a great breakfast bar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r570261396-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>570261396</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>La Quinta at Legacy in Plano, TX</t>
+  </si>
+  <si>
+    <t>Hotel is a nice place for a home away from home feel. Food they offer for breakfast is great with fresh fruit. Room are comfortable with lots of lighting in the bathroom and room. Staff is also friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is a nice place for a home away from home feel. Food they offer for breakfast is great with fresh fruit. Room are comfortable with lots of lighting in the bathroom and room. Staff is also friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r569695158-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>569695158</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Cali Visit:)</t>
+  </si>
+  <si>
+    <t>Perfect vacation,perfect location. Would recommend this Hotel to family and friends. Very clean,wonderful breakfast.Great location right next to the highway. Family likes across the street so very convenient for our family.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Perfect vacation,perfect location. Would recommend this Hotel to family and friends. Very clean,wonderful breakfast.Great location right next to the highway. Family likes across the street so very convenient for our family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r569574328-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>569574328</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Travel to Plano. Tx</t>
+  </si>
+  <si>
+    <t>Hotel was clean, new and in good location, many areas to eat. Easy access to the highway. About 15-20 minutes to different area airports. Good Neightboor hood. Great free breakfast  Hotel has a pool, gym. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Hotel was clean, new and in good location, many areas to eat. Easy access to the highway. About 15-20 minutes to different area airports. Good Neightboor hood. Great free breakfast  Hotel has a pool, gym. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r569570784-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>569570784</t>
+  </si>
+  <si>
+    <t>Frisco Stay</t>
+  </si>
+  <si>
+    <t>Very nice property, but they do not have bath tubs - only showers. This is the only reason it is not a five! They did, however, take care of us and put us in a handicapped room that was not in use. Breakfast was outstanding - great selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice property, but they do not have bath tubs - only showers. This is the only reason it is not a five! They did, however, take care of us and put us in a handicapped room that was not in use. Breakfast was outstanding - great selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r569569961-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>569569961</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>This is a newer facility and it is well kept.  Although it is a little north of where we wanted to be the price was great and it has easy access to the freeway and the toll road. The staff was friendly and helpful.  The breakfast was very good.  Enjoyed our stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a newer facility and it is well kept.  Although it is a little north of where we wanted to be the price was great and it has easy access to the freeway and the toll road. The staff was friendly and helpful.  The breakfast was very good.  Enjoyed our stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r569413665-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>569413665</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t>Beautiful new La Quinta</t>
+  </si>
+  <si>
+    <t>Very nice, clean, new and modern La Quinta in Plano/Frisco area. Excellent price compared to other hotels in the immediate area. Excellent location to Shops at Legacy as well. Definitely would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Very nice, clean, new and modern La Quinta in Plano/Frisco area. Excellent price compared to other hotels in the immediate area. Excellent location to Shops at Legacy as well. Definitely would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r569219723-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>569219723</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Great accommodations</t>
+  </si>
+  <si>
+    <t>Great bargain at the time of booking. Stayed two nights. Quite. Good breakfast. Great proximity and easy access. Fairly new property, only two years old, so still very clean and new. Modern decor. Enjoyed my stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great bargain at the time of booking. Stayed two nights. Quite. Good breakfast. Great proximity and easy access. Fairly new property, only two years old, so still very clean and new. Modern decor. Enjoyed my stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r556196638-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>556196638</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Couple relaxation time.</t>
+  </si>
+  <si>
+    <t>My stay went really well from the very beginning. I really enjoyed the location of the hotel, how it was off to its self. I feel the bed could have been a little more comfortable but overall it was a really good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>My stay went really well from the very beginning. I really enjoyed the location of the hotel, how it was off to its self. I feel the bed could have been a little more comfortable but overall it was a really good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r556235590-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>556235590</t>
+  </si>
+  <si>
+    <t>Plano LaQuinta</t>
+  </si>
+  <si>
+    <t>Very nice and new looking facility.  Staff was friendly and helpful.  Breakfast was very good, better than most in this chain as they offered hot foods.  Small market was convenient but very pricy.  Housekeeping was a bit sloppy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice and new looking facility.  Staff was friendly and helpful.  Breakfast was very good, better than most in this chain as they offered hot foods.  Small market was convenient but very pricy.  Housekeeping was a bit sloppy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r555845971-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>555845971</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>places seems new, the stay was very comfortable and the staff was very nice. It is in the middle of new development and a little difficult to navigate at this time with all the construction. We would definitely stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>places seems new, the stay was very comfortable and the staff was very nice. It is in the middle of new development and a little difficult to navigate at this time with all the construction. We would definitely stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r555823380-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>555823380</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Great hotel.  Comfortable beds, clean rooms and great breakfast!  We will definitely stay here the next time we are in Frisco.  Very convenient location to the Dr. Pepper Center and Stonebriar Mall.  Friendly check in staff as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel.  Comfortable beds, clean rooms and great breakfast!  We will definitely stay here the next time we are in Frisco.  Very convenient location to the Dr. Pepper Center and Stonebriar Mall.  Friendly check in staff as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r554331861-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>554331861</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>A Great Family Stay</t>
+  </si>
+  <si>
+    <t>We were in town to visit our daughter who lives near the Shops at Legacy.  We had other family members with us and enjoyed our time here.  Our room was clean, breakfast was good, and the staff was vey helpful. It was also very close to the Legacy area.  I would recommend this hotel to friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>We were in town to visit our daughter who lives near the Shops at Legacy.  We had other family members with us and enjoyed our time here.  Our room was clean, breakfast was good, and the staff was vey helpful. It was also very close to the Legacy area.  I would recommend this hotel to friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r550664268-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>550664268</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Love this hotel!</t>
+  </si>
+  <si>
+    <t>This hotel exceeded my expectations! It’s new and modern and looks great! The rooms are comfortable and the bed slept great! It has a huge shower which was a nice perk. The breakfast was delicious, too. All in all, it’s great value for what you get. I give it an A+!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded January 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2018</t>
+  </si>
+  <si>
+    <t>This hotel exceeded my expectations! It’s new and modern and looks great! The rooms are comfortable and the bed slept great! It has a huge shower which was a nice perk. The breakfast was delicious, too. All in all, it’s great value for what you get. I give it an A+!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r548274284-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>548274284</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Perfect Place</t>
+  </si>
+  <si>
+    <t>This new hotel was extremely clean and inviting and very quiet. It has easy access to the Dallas North Tollway, George Bush and Hwy 121. They were several restaurants and stores in ose proximity to the hotel. I would definitely recommend this hotel and will be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>This new hotel was extremely clean and inviting and very quiet. It has easy access to the Dallas North Tollway, George Bush and Hwy 121. They were several restaurants and stores in ose proximity to the hotel. I would definitely recommend this hotel and will be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r548056201-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>548056201</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Awesome Experience</t>
+  </si>
+  <si>
+    <t>Rooms were very clean and quiet, the manager often works in the front office and is available. The rooms have neat chargers at the desk and a sleek design all around. Look forward to returning to this location!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms were very clean and quiet, the manager often works in the front office and is available. The rooms have neat chargers at the desk and a sleek design all around. Look forward to returning to this location!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r548157249-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>548157249</t>
+  </si>
+  <si>
+    <t>Very Clean Hotel , Comfortable Bed, Close to all our Favorite Spots</t>
+  </si>
+  <si>
+    <t>This hotel was immaculately clean. The bed was VERY comfortable, and the location was great. It was only a few miles to great shopping and restaurants to the north and south. Even though it was directly off of DNT, you could easily move through back streets and side roads to get around without having to pay toll costs. Loved it.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was immaculately clean. The bed was VERY comfortable, and the location was great. It was only a few miles to great shopping and restaurants to the north and south. Even though it was directly off of DNT, you could easily move through back streets and side roads to get around without having to pay toll costs. Loved it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r547458787-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>547458787</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Very Good Stay</t>
+  </si>
+  <si>
+    <t>Very good, new, quiet and comfortable.  Great location for commuting around the Plano and North Dallas area. The colors are modern but not too much.  Legacy area is near by.  Several restaurants and bars are in the area.  I found the price point for this property very acceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded December 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2017</t>
+  </si>
+  <si>
+    <t>Very good, new, quiet and comfortable.  Great location for commuting around the Plano and North Dallas area. The colors are modern but not too much.  Legacy area is near by.  Several restaurants and bars are in the area.  I found the price point for this property very acceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r547000914-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>547000914</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Too many negatives make this a poor choice</t>
+  </si>
+  <si>
+    <t>Brand new, high tech design vibe and value pricing tempted us to give this property a try. Location is decent for those visiting the northwest Plano/Legacy area (there is no monument sign indicating the entrance so keep s sharp eye) Positives include a high design techie feel in the spacious lobby and rooms, and a friendly desk staff. Negatives add up, though. The absence of carpet in the halls and rooms causes every sound to reverberate and reflect. Noisy. The metal bed frame groaned, creaked and squeaked with every small movement. The stylish lighting was also cold and fluorescent, adding to the starkness. We slept in our first morning (sort of- the noise woke us) so the maid service skipped over us and never returned. A couple of notices to the front desk got the room tidied, but without toilet paper or cleaning of the coffee pot. Two days later the tissues ran out but were not replaced. Ants appeared in the corner and on the bed: the desk folks took note, apologized, volunteered to remove sundry charges as a nice gesture, and efforts to do a good mop out or whatever seem to have been made while we were out (the room and hotel seemed very clean). Unfortunately, the ants reappeared the next day (and the sundry charges showed up on our bill at checkout). All in all, we would not recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new, high tech design vibe and value pricing tempted us to give this property a try. Location is decent for those visiting the northwest Plano/Legacy area (there is no monument sign indicating the entrance so keep s sharp eye) Positives include a high design techie feel in the spacious lobby and rooms, and a friendly desk staff. Negatives add up, though. The absence of carpet in the halls and rooms causes every sound to reverberate and reflect. Noisy. The metal bed frame groaned, creaked and squeaked with every small movement. The stylish lighting was also cold and fluorescent, adding to the starkness. We slept in our first morning (sort of- the noise woke us) so the maid service skipped over us and never returned. A couple of notices to the front desk got the room tidied, but without toilet paper or cleaning of the coffee pot. Two days later the tissues ran out but were not replaced. Ants appeared in the corner and on the bed: the desk folks took note, apologized, volunteered to remove sundry charges as a nice gesture, and efforts to do a good mop out or whatever seem to have been made while we were out (the room and hotel seemed very clean). Unfortunately, the ants reappeared the next day (and the sundry charges showed up on our bill at checkout). All in all, we would not recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r546755140-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>546755140</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This is a newer hotel in a great location.  Parking is very easy, the hotel is spotless.  There are lots of places to sit and relax in the lobby area.  The breakfast selection was the best I've experienced at a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a newer hotel in a great location.  Parking is very easy, the hotel is spotless.  There are lots of places to sit and relax in the lobby area.  The breakfast selection was the best I've experienced at a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r545010529-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>545010529</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel I have stayed in in the DFW area.</t>
+  </si>
+  <si>
+    <t>Great holel off the beaten path and quite. Its new and the rooms are so well kept and the staff goes out of their way to help. The breakfast is better then a lot of restarents I have eaten in.  I have stayed there 4 times in the past three years and will never stay any where else.  The rooms are so quite that you cant here your naibors or anyone else come and go. Looking  forward to me next trip in March. They even have a nice little bar thats open in the evening for a cold beer or drinks.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded December 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2017</t>
+  </si>
+  <si>
+    <t>Great holel off the beaten path and quite. Its new and the rooms are so well kept and the staff goes out of their way to help. The breakfast is better then a lot of restarents I have eaten in.  I have stayed there 4 times in the past three years and will never stay any where else.  The rooms are so quite that you cant here your naibors or anyone else come and go. Looking  forward to me next trip in March. They even have a nice little bar thats open in the evening for a cold beer or drinks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r543744255-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>543744255</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>LaQunita in my home town not too desirable but this hotel is opposite. Everything was perfect from staff, room to breakfast. Definitely a fan. Wish all LaQintas stood up to Frisco/Plano standards. The price was great and conveniently located to stores and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>LaQunita in my home town not too desirable but this hotel is opposite. Everything was perfect from staff, room to breakfast. Definitely a fan. Wish all LaQintas stood up to Frisco/Plano standards. The price was great and conveniently located to stores and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r543099977-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>543099977</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>Repeat Customer</t>
+  </si>
+  <si>
+    <t>I've stayed several times at this LaQuinta.  The property seems new.  The staff are courteous and efficient.  I haven't had the opportunity to take their shuttle, but I suspect it would get me to and from local destinations.  The gas firepit outside looks quite inviting.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed several times at this LaQuinta.  The property seems new.  The staff are courteous and efficient.  I haven't had the opportunity to take their shuttle, but I suspect it would get me to and from local destinations.  The gas firepit outside looks quite inviting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r537312646-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>537312646</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Business Review</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel only as a last resort.  Only because the people that I support in my company are C-level and I do not think this is a "best" fit.  I would however, recommend to others,   visitor, vendors that are in our organization.  I would say pack your patience.  Do not get a room next to the stairs or the ice machine.  And do not expect room service, otherwise it's okay.  One night is a long enough of a stay.  The room was clean, you can tell it's still a new hotel.  This is a step up from your back in the day LaQuinta.  The staff was friendly, aware and courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel only as a last resort.  Only because the people that I support in my company are C-level and I do not think this is a "best" fit.  I would however, recommend to others,   visitor, vendors that are in our organization.  I would say pack your patience.  Do not get a room next to the stairs or the ice machine.  And do not expect room service, otherwise it's okay.  One night is a long enough of a stay.  The room was clean, you can tell it's still a new hotel.  This is a step up from your back in the day LaQuinta.  The staff was friendly, aware and courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r537030669-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>537030669</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>The LQ delivered!  Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>I had to book a last minute trip as I often do for work and specifically needed to be in Plano.  Rates were exceeding $300 for most of the local hotels.  I'd stayed at NYLO Plano the week prior and although I'd loved the Happy Hour and Breakfast, I wasn't a huge fan of the room.  I booked the La Quinta because they had reasonable rates and availability...turned out to be a gem.  The staff was wonderful!  The room was spacious, clean, modern AND comfy!  And they had a bar where I could have a glass of wine after a long day of meetings!  The Sales Manager Ms. Willis came out and personally greeted me during check-in.  You can see from my other reviews the level of accommodations and service I prefer especially with traveling as much as I do for work.  This one is apparently a new concept for La Quinta and it works.  I don't think I've ever stayed in a La Quinta previous to this stay, but I will again for sure!  One thing to note is that they do not have a restaurant or food offerings in the evening, but breakfast is included in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jesus D, Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2017</t>
+  </si>
+  <si>
+    <t>I had to book a last minute trip as I often do for work and specifically needed to be in Plano.  Rates were exceeding $300 for most of the local hotels.  I'd stayed at NYLO Plano the week prior and although I'd loved the Happy Hour and Breakfast, I wasn't a huge fan of the room.  I booked the La Quinta because they had reasonable rates and availability...turned out to be a gem.  The staff was wonderful!  The room was spacious, clean, modern AND comfy!  And they had a bar where I could have a glass of wine after a long day of meetings!  The Sales Manager Ms. Willis came out and personally greeted me during check-in.  You can see from my other reviews the level of accommodations and service I prefer especially with traveling as much as I do for work.  This one is apparently a new concept for La Quinta and it works.  I don't think I've ever stayed in a La Quinta previous to this stay, but I will again for sure!  One thing to note is that they do not have a restaurant or food offerings in the evening, but breakfast is included in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r535273002-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>535273002</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>very fresh!</t>
+  </si>
+  <si>
+    <t>Nice new hotel.  Well designed and modern.  The desk staff was friendly and efficient, far more than any other hotel I can remember staying at.  The complimentary breakfast had a great selection and is a great start to your day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded October 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2017</t>
+  </si>
+  <si>
+    <t>Nice new hotel.  Well designed and modern.  The desk staff was friendly and efficient, far more than any other hotel I can remember staying at.  The complimentary breakfast had a great selection and is a great start to your day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r531880047-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>531880047</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>a Quiet and Safe trip</t>
+  </si>
+  <si>
+    <t>Felt safe, not many spots to eat nearby -must have a car. This AC unit goes off/on - not steady. Pillows and mattress are a bit firm - ask for soft pillows if need be. Typical hotel breakfast was good, did its job! No wif password- plenty of outlets to charge your devices. Awesome customer service! Elevator a bit warm too. Hotel internal/external lighting A+, felt safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>Felt safe, not many spots to eat nearby -must have a car. This AC unit goes off/on - not steady. Pillows and mattress are a bit firm - ask for soft pillows if need be. Typical hotel breakfast was good, did its job! No wif password- plenty of outlets to charge your devices. Awesome customer service! Elevator a bit warm too. Hotel internal/external lighting A+, felt safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r529345142-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>529345142</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Fabulous property</t>
+  </si>
+  <si>
+    <t>The hotel is new, modern, clean and fabulously priced.  Every staff member I interacted with was professional and so helpful!  The free breakfast in the morning was constantly restocked and very impressive.  I will definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>The hotel is new, modern, clean and fabulously priced.  Every staff member I interacted with was professional and so helpful!  The free breakfast in the morning was constantly restocked and very impressive.  I will definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r527785234-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>527785234</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Great hotel &amp; very convenient</t>
+  </si>
+  <si>
+    <t>The hotel is very attractive. Our room was comfortable. We were visiting people close by so the location was perfect. The free breakfast was better then most with a nice selection including fresh fruit. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jesus D, Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded October 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very attractive. Our room was comfortable. We were visiting people close by so the location was perfect. The free breakfast was better then most with a nice selection including fresh fruit. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r527736649-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>527736649</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>We hope it stays as good as it is now.</t>
+  </si>
+  <si>
+    <t>Nice place, a bit out of the way compared to the places we wanted to go.  The hotel was very clean, staff was friendly and helpful.  The breakfast was fine, and the facilities very roomy and attractive.  Loved the sitting area in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice place, a bit out of the way compared to the places we wanted to go.  The hotel was very clean, staff was friendly and helpful.  The breakfast was fine, and the facilities very roomy and attractive.  Loved the sitting area in the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r527094405-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>527094405</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Mr. B.B.</t>
+  </si>
+  <si>
+    <t>Jesus and Alexa have been extremely helpful and accommodating when helping to set up, and make adjustments to, my several reservations.  They are the best!Ignacio, "Nacho",  has been very helpful and cheerful each morning in the breakfast area.  He is very proactive at mixing the food, straightening up everything to keep the food presentation excellent; and keeping the green sauce, and other freshly made sauces, perfect for adding to the eggs.  He also keeps the area clean, vacumming and mopping, daily.  Lastly,  the coffee pots never run out, as I have experienced in other hotels.The cleaning staff at this hotel are also excellent.  The different rooms I have stayed in have been cleaned extremely well.  They also occasionally, decoratively fold the towels, and the face clothes  placing soap on them.All in all,  this newer La Quinta is the best La Quinta I have stay in; and I have stayed in a few in different U.S. States.  It is also a better hotel than many of the higher brand hotels I have stayed in, without naming names.I highly recommend this hotel to folks staying in the north Dallas ,TX areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jesus and Alexa have been extremely helpful and accommodating when helping to set up, and make adjustments to, my several reservations.  They are the best!Ignacio, "Nacho",  has been very helpful and cheerful each morning in the breakfast area.  He is very proactive at mixing the food, straightening up everything to keep the food presentation excellent; and keeping the green sauce, and other freshly made sauces, perfect for adding to the eggs.  He also keeps the area clean, vacumming and mopping, daily.  Lastly,  the coffee pots never run out, as I have experienced in other hotels.The cleaning staff at this hotel are also excellent.  The different rooms I have stayed in have been cleaned extremely well.  They also occasionally, decoratively fold the towels, and the face clothes  placing soap on them.All in all,  this newer La Quinta is the best La Quinta I have stay in; and I have stayed in a few in different U.S. States.  It is also a better hotel than many of the higher brand hotels I have stayed in, without naming names.I highly recommend this hotel to folks staying in the north Dallas ,TX areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r525908875-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>525908875</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Great New Hotel with Friendly Staff</t>
+  </si>
+  <si>
+    <t>I was travelling for business and our group of five stayed at this hotel.  It is a newer hotel with a great design.  The staff were amazing and super friendly.  The room and bathroom were clean and had plenty of room.  The free breakfast was good.  My only issue was the firmness of the new pillows interfered with my sleep but I am sure they will soften over time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jesus D, Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded September 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2017</t>
+  </si>
+  <si>
+    <t>I was travelling for business and our group of five stayed at this hotel.  It is a newer hotel with a great design.  The staff were amazing and super friendly.  The room and bathroom were clean and had plenty of room.  The free breakfast was good.  My only issue was the firmness of the new pillows interfered with my sleep but I am sure they will soften over time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r524898412-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>524898412</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great trip..... I really enjoyed myself and the staff was great. The room was clean and it was in a great area. I would definitely recommend this hotel to my friends and I would stay there again if I were in town. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great trip..... I really enjoyed myself and the staff was great. The room was clean and it was in a great area. I would definitely recommend this hotel to my friends and I would stay there again if I were in town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r519741749-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>519741749</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Clean, Cool and Safe Stay at La Quinta</t>
+  </si>
+  <si>
+    <t>Loved this hotel. I'd come back. Breakfast is great. You need a car to have Lunch and Dinner though - There is no onsite Restaurant. The pool and Jacuzzi are fun and there are chairs, tables and (most important) Umbrella's to stay in the Shade.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Loved this hotel. I'd come back. Breakfast is great. You need a car to have Lunch and Dinner though - There is no onsite Restaurant. The pool and Jacuzzi are fun and there are chairs, tables and (most important) Umbrella's to stay in the Shade.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r519406561-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>519406561</t>
+  </si>
+  <si>
+    <t>New, modern, spacious workplace</t>
+  </si>
+  <si>
+    <t>Nice hotel: new, relatively clean, nice staff. I also liked the space around the hotel -- big green field which allowed a sense of calm and relaxation. Near enough to food centers and shopping if one wants to drive, but a great parking place for work for a few days.If I'm going to be picky, and I am, I would say 4 things:1) Serve great coffee. Farmers Bros doesn't cut it. Starbucks brought high-quality coffee to the masses and that level is the expectation. Serve something great! Stumptown for instance.2) Stop using styrofoam dishes: we know how bad styrofoam is for the environment and I'm always shocked by corporations who continue to choose to use it. There are many eco-friendly options now!3) Wine bar is nice. Serve light bites too! A sip of nice wine and an app at the end of the day can go a long way, especially since there are no amenities within walking distance.4) I spilled some water on the floor one morning and cleaned it up. When I did, it was apparent that the floor is actually quite dirty. Needs some deep cleaning!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel: new, relatively clean, nice staff. I also liked the space around the hotel -- big green field which allowed a sense of calm and relaxation. Near enough to food centers and shopping if one wants to drive, but a great parking place for work for a few days.If I'm going to be picky, and I am, I would say 4 things:1) Serve great coffee. Farmers Bros doesn't cut it. Starbucks brought high-quality coffee to the masses and that level is the expectation. Serve something great! Stumptown for instance.2) Stop using styrofoam dishes: we know how bad styrofoam is for the environment and I'm always shocked by corporations who continue to choose to use it. There are many eco-friendly options now!3) Wine bar is nice. Serve light bites too! A sip of nice wine and an app at the end of the day can go a long way, especially since there are no amenities within walking distance.4) I spilled some water on the floor one morning and cleaned it up. When I did, it was apparent that the floor is actually quite dirty. Needs some deep cleaning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r516148902-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>516148902</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Quick and restful stay</t>
+  </si>
+  <si>
+    <t>Family members have stayed at this location for business so we stayed here for an overnight visit while visiting family in the area. The staff was great.   The hotel was bright and fresh and seemed brand new.  Our room was clean and comfortable.  The floors do not have carpet which I prefer and were dust free.  The bathroom included a bright LED mirror which was great and provided a lot of light. The breakfast was more than I expected with hot items as well as the usual cereal. We were very pleased with our stay there and will stay there again in the future.  This was a very convenient location. There are lots of shopping and restaurants in the surrounding area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Family members have stayed at this location for business so we stayed here for an overnight visit while visiting family in the area. The staff was great.   The hotel was bright and fresh and seemed brand new.  Our room was clean and comfortable.  The floors do not have carpet which I prefer and were dust free.  The bathroom included a bright LED mirror which was great and provided a lot of light. The breakfast was more than I expected with hot items as well as the usual cereal. We were very pleased with our stay there and will stay there again in the future.  This was a very convenient location. There are lots of shopping and restaurants in the surrounding area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r515864811-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>515864811</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>We only stayed here while passing through to San Antonio however we would have loved to have been able to stay longer and take advantage of what it had to offer. The hotel was very clean and the deco was really fun (my teenage daughter loved it). They had a nice little pool and hot tub as well as a large fire pit. Breakfast was lovely and there was a large variety of choices. Great hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>We only stayed here while passing through to San Antonio however we would have loved to have been able to stay longer and take advantage of what it had to offer. The hotel was very clean and the deco was really fun (my teenage daughter loved it). They had a nice little pool and hot tub as well as a large fire pit. Breakfast was lovely and there was a large variety of choices. Great hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r515864170-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>515864170</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Hotel stay was great! The staff were very helpful, the breakfast was great, the room decor is beautiful, the rooms were very spacious and clean. I couldn't find one thing to complain about. Enjoyed my stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel stay was great! The staff were very helpful, the breakfast was great, the room decor is beautiful, the rooms were very spacious and clean. I couldn't find one thing to complain about. Enjoyed my stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r503281980-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>503281980</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>No pets - wouldn't even accept my service animal!</t>
+  </si>
+  <si>
+    <t>I always book at La Quinta because it is pet friendly. I have a small service dog, and La Quinta has always been my top choice for hotels simply because it is easier to stay at a hotel that allows animals. After booking this hotel, I noticed that this location was not listed as pet friendly. I called the front desk to let them know that I saw the "no pets" and wanted to confirm with them that I had a service animal with me (since I didn't put it in my booking), and they informed me that they don't allow service animals or animals of any kind. I repeated that it wasn't a pet, but was instead a service animal. The woman at the front desk reiterated that she knew what I was talking about, but still wouldn't allow it. I asked her if she realized that this was not in compliance with ADA, and she told me I was wrong. Guess I need to find a new hotel chain for my travels.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>I always book at La Quinta because it is pet friendly. I have a small service dog, and La Quinta has always been my top choice for hotels simply because it is easier to stay at a hotel that allows animals. After booking this hotel, I noticed that this location was not listed as pet friendly. I called the front desk to let them know that I saw the "no pets" and wanted to confirm with them that I had a service animal with me (since I didn't put it in my booking), and they informed me that they don't allow service animals or animals of any kind. I repeated that it wasn't a pet, but was instead a service animal. The woman at the front desk reiterated that she knew what I was talking about, but still wouldn't allow it. I asked her if she realized that this was not in compliance with ADA, and she told me I was wrong. Guess I need to find a new hotel chain for my travels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r497571415-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>497571415</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Nice and clean!</t>
+  </si>
+  <si>
+    <t>It's been a long time since I've stayed at a La Quinta, but this may change after staying here. It was an excellent stay. The front desk clerk was friendly and helpful. Our room was clean and comfortable. When we came back after a day out, our room looked even cleaner! I have never had housekeeping be that thorough on multiple days. My only complaint is that the bed was too hard for me, but I'm picky and like a soft mattress. That being said, I still had good nights sleep while there.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Victor R, Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded July 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2017</t>
+  </si>
+  <si>
+    <t>It's been a long time since I've stayed at a La Quinta, but this may change after staying here. It was an excellent stay. The front desk clerk was friendly and helpful. Our room was clean and comfortable. When we came back after a day out, our room looked even cleaner! I have never had housekeeping be that thorough on multiple days. My only complaint is that the bed was too hard for me, but I'm picky and like a soft mattress. That being said, I still had good nights sleep while there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r497513613-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>497513613</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Good for business travel, quiet place with large rooms. Gym, swimming pool, breakfast included and shuttle service free in 5 miles radius anytime. Perhaps a proper laundry service would be really appreciated by those like me that don't have the time for ironing.. but anyway washer and drier were available, plus iron and table in the room.For the price paid, it's more than ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good for business travel, quiet place with large rooms. Gym, swimming pool, breakfast included and shuttle service free in 5 miles radius anytime. Perhaps a proper laundry service would be really appreciated by those like me that don't have the time for ironing.. but anyway washer and drier were available, plus iron and table in the room.For the price paid, it's more than ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r497249340-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>497249340</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Pets!! </t>
+  </si>
+  <si>
+    <t>I would give this LQ a ZERO! We have always booked at LQ because they have always been pet friendly. We made reservations at this hotel without ever thinking or knowing they were now pet friendly! They need to update all booking channels websites because even on this site it shows they are pet friendly! LQ Corp office could at least put a pop up alert stating that as of 2017 not ALL LQ ARE PET FRIENDLY TO PLEASE READ HOTEL POLICIES! Hilton does! Very inconvenient and now I had to pay more for a room at another hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>I would give this LQ a ZERO! We have always booked at LQ because they have always been pet friendly. We made reservations at this hotel without ever thinking or knowing they were now pet friendly! They need to update all booking channels websites because even on this site it shows they are pet friendly! LQ Corp office could at least put a pop up alert stating that as of 2017 not ALL LQ ARE PET FRIENDLY TO PLEASE READ HOTEL POLICIES! Hilton does! Very inconvenient and now I had to pay more for a room at another hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r492645441-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>492645441</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>The La Quinta is less than a year old and is very nice.  All staff were friendly and most helpful.  Less than a 5 minute stay from my business meeting.  The shuttle was most helpful.  Great place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>The La Quinta is less than a year old and is very nice.  All staff were friendly and most helpful.  Less than a 5 minute stay from my business meeting.  The shuttle was most helpful.  Great place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r492006966-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>492006966</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>New and Clean!</t>
+  </si>
+  <si>
+    <t>We arrived after a long roadtrip with our dog. We had a reservation and to our surprise was told that they were not pet friendly. That they had changed their policy for this location. They do accept service dogs...so with that being said we got lucky! The hotel was new, nice, and clean. We stayed in a King room which was very comfortable. We did have a slight mishap with the first room we checked into. There was a stain on the mattress which looked like a urine stain. The front desk girl was very nice and gave us another room that was perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>We arrived after a long roadtrip with our dog. We had a reservation and to our surprise was told that they were not pet friendly. That they had changed their policy for this location. They do accept service dogs...so with that being said we got lucky! The hotel was new, nice, and clean. We stayed in a King room which was very comfortable. We did have a slight mishap with the first room we checked into. There was a stain on the mattress which looked like a urine stain. The front desk girl was very nice and gave us another room that was perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r492096999-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>492096999</t>
+  </si>
+  <si>
+    <t>Waynes Birthday</t>
+  </si>
+  <si>
+    <t>Our stay at La Quinta Legacy was great. It was the nicest  and cleanest hotel we have stayed at  ever. The staff was very friendly and helpful. The breakfast was excellent. Loved the room. It was beautiful and relaxing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay at La Quinta Legacy was great. It was the nicest  and cleanest hotel we have stayed at  ever. The staff was very friendly and helpful. The breakfast was excellent. Loved the room. It was beautiful and relaxing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r491659194-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>491659194</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>LaQunita</t>
+  </si>
+  <si>
+    <t>Nice Hotel new. Not in area with restaurants. I know most people don't smoke, but for those who do need a covered area when raining. And I don't mind being in back of Hotel. The breakfast was good. Staff great. Rooms great clean and new. I would recommend to stay here. A little out of way .MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel new. Not in area with restaurants. I know most people don't smoke, but for those who do need a covered area when raining. And I don't mind being in back of Hotel. The breakfast was good. Staff great. Rooms great clean and new. I would recommend to stay here. A little out of way .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r490641880-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>490641880</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>New, Clean and the staff is friendly and great.  Breakfast was fantastic.  Good location in North Plano; close to Frisco, The Colony and Lewisville.  Great shopping areas close:  Shops @Legacy, Legacy West (new), Stonebriar Mall and IKEA.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>New, Clean and the staff is friendly and great.  Breakfast was fantastic.  Good location in North Plano; close to Frisco, The Colony and Lewisville.  Great shopping areas close:  Shops @Legacy, Legacy West (new), Stonebriar Mall and IKEA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r490341046-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>490341046</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r483232591-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>483232591</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Best La Quinta Ever?</t>
+  </si>
+  <si>
+    <t>Although I don't usually stay at La Quinta's or similar hotels for business trips, this was a newly constructed property and I decided to try it out. It was a clean and unique hotel that honestly surprised me on how nice it looked. Also breakfast was pretty good, I'll definitely book again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Although I don't usually stay at La Quinta's or similar hotels for business trips, this was a newly constructed property and I decided to try it out. It was a clean and unique hotel that honestly surprised me on how nice it looked. Also breakfast was pretty good, I'll definitely book again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485518921-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485518921</t>
+  </si>
+  <si>
+    <t>Reasonable, Clean, Good location</t>
+  </si>
+  <si>
+    <t>This is by far one of the best La Quinta hotels I have stayed in.  Very clean with modern décor, appears to be newly built.  Staff were accommodating, friendly and efficient.  Did not eat while there, but breakfast served each morning.  Location away from the downtown Dallas area and fairly easy to find.  Plenty of restaurants and activities nearby.  Would definitely stay there again...and plan to.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>This is by far one of the best La Quinta hotels I have stayed in.  Very clean with modern décor, appears to be newly built.  Staff were accommodating, friendly and efficient.  Did not eat while there, but breakfast served each morning.  Location away from the downtown Dallas area and fairly easy to find.  Plenty of restaurants and activities nearby.  Would definitely stay there again...and plan to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r481631793-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>481631793</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Awesome, modern hotel</t>
+  </si>
+  <si>
+    <t>This La Quinta is fantastic! Very new and modern. Rooms and bathroom impeccably clean and spacious. All La Qunitas should be updated to resemble this hotel. Better than many 4-star hotels I have stayed in. Friendly staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded May 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2017</t>
+  </si>
+  <si>
+    <t>This La Quinta is fantastic! Very new and modern. Rooms and bathroom impeccably clean and spacious. All La Qunitas should be updated to resemble this hotel. Better than many 4-star hotels I have stayed in. Friendly staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r481467640-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>481467640</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel but NO good nights sleep</t>
+  </si>
+  <si>
+    <t>Don't get me wrong, the hotel is beautiful and nicely decorated. I did not sleep well at all because the bed wasn't comfortable at all. It was lumpy and squeaky. The pillows were VERY hard, and the bed sheets were rough and cheap. I was scratching my skin on and off thru out the night, and woke up with a crook in my neck from tossing and turning with hard pillows. The sheets were not smooth like I'm used to in most nice hotels that I have stayed in. The second night, I decided to sleep with the very first top sheet that they have on the bed. I wrapped my body around that, and slept like a baby because that one sheet was very smooth and silky.Beautiful hotel, with spacious bathroom and walk in shower, with refrigerator and microwave, and the TV was very large. However, due to the bed, bed sheets, and pillows, I will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Don't get me wrong, the hotel is beautiful and nicely decorated. I did not sleep well at all because the bed wasn't comfortable at all. It was lumpy and squeaky. The pillows were VERY hard, and the bed sheets were rough and cheap. I was scratching my skin on and off thru out the night, and woke up with a crook in my neck from tossing and turning with hard pillows. The sheets were not smooth like I'm used to in most nice hotels that I have stayed in. The second night, I decided to sleep with the very first top sheet that they have on the bed. I wrapped my body around that, and slept like a baby because that one sheet was very smooth and silky.Beautiful hotel, with spacious bathroom and walk in shower, with refrigerator and microwave, and the TV was very large. However, due to the bed, bed sheets, and pillows, I will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519709-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485519709</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>No Pets at La Quinta???</t>
+  </si>
+  <si>
+    <t>In my many years of travelling for dog shows, I ALWAYS stay at LaQuinta due to their friendly pet policy.  To my disappointment, this LaQuinta does not allow pets.  It's a shame, as it's a pretty nice hotel.  I hope this isn't a trend with LaQuinta.MoreShow less</t>
+  </si>
+  <si>
+    <t>In my many years of travelling for dog shows, I ALWAYS stay at LaQuinta due to their friendly pet policy.  To my disappointment, this LaQuinta does not allow pets.  It's a shame, as it's a pretty nice hotel.  I hope this isn't a trend with LaQuinta.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r473963234-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>473963234</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Perfect service, nice location, friendly staff</t>
+  </si>
+  <si>
+    <t>I was here for a 1,5 week business trip and my experiences are consistently perfect. The rooms are clean and well equiped. Swiming pool, jacuzzi tub and fittnes room are state of the art. The staff is courteous and helps out with whatever you need. Air conditioning is working fine in the whole building. Breakfast is comprehensive and allways freshly prepared every day. Absolutely nothing to complain.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was here for a 1,5 week business trip and my experiences are consistently perfect. The rooms are clean and well equiped. Swiming pool, jacuzzi tub and fittnes room are state of the art. The staff is courteous and helps out with whatever you need. Air conditioning is working fine in the whole building. Breakfast is comprehensive and allways freshly prepared every day. Absolutely nothing to complain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r473470079-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>473470079</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>No pets allowed</t>
+  </si>
+  <si>
+    <t>We have previously stayed at this hotel twice in the past with our small dog and it was an excellent value. Breakfast was excellent for La Quinta. Service likewise was excellent. However, when we tried to check in today, we were informed that pets were no longer allowed. This was the first ever La Quinta we have ever encountered which did no allow pets. Be advised to leave you dog at home if you book here. The front desk was very helpful with locating alternate accommodations for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have previously stayed at this hotel twice in the past with our small dog and it was an excellent value. Breakfast was excellent for La Quinta. Service likewise was excellent. However, when we tried to check in today, we were informed that pets were no longer allowed. This was the first ever La Quinta we have ever encountered which did no allow pets. Be advised to leave you dog at home if you book here. The front desk was very helpful with locating alternate accommodations for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r472924718-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>472924718</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Great value hotel</t>
+  </si>
+  <si>
+    <t>Great value at this hotel.  Included breakfast &amp; shuttle service (within 5 miles) really enhanced the value for our stay.  the pullout was soft but not too uncomfortable.  Clean, friendly service, somewhat convenient (especially with the weekday (only) shuttle) and pool/hot tub were nice (although on the shady side of the hotel).MoreShow less</t>
+  </si>
+  <si>
+    <t>Great value at this hotel.  Included breakfast &amp; shuttle service (within 5 miles) really enhanced the value for our stay.  the pullout was soft but not too uncomfortable.  Clean, friendly service, somewhat convenient (especially with the weekday (only) shuttle) and pool/hot tub were nice (although on the shady side of the hotel).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r471746554-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>471746554</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!!</t>
+  </si>
+  <si>
+    <t>The Hotel was beautiful, room was very spacious, and the breakfast was great. My family and I stayed for three nights, room service kept us stocked with towels and made sure the room was clean. Very quiet and relaxing! The guys at the front desk were always greeting us with a smile, very friendly staff. It was an honor to have met Mrs. Thressia Wilis she was so nice and genuine. Yes, I would stay at the La Quinta - Legacy again (I didn't want to leave). Oh and everything you need is close by shopping, eating, nail salon etc....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>The Hotel was beautiful, room was very spacious, and the breakfast was great. My family and I stayed for three nights, room service kept us stocked with towels and made sure the room was clean. Very quiet and relaxing! The guys at the front desk were always greeting us with a smile, very friendly staff. It was an honor to have met Mrs. Thressia Wilis she was so nice and genuine. Yes, I would stay at the La Quinta - Legacy again (I didn't want to leave). Oh and everything you need is close by shopping, eating, nail salon etc....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r469377572-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>469377572</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while in the area for my son's football camp at The Star in Frisco.  What a great find!  The hotel is new, and it's certainly the nicest LaQuinta I've stayed in to date.  The lobby is very modern and spacious.  Our room was a good size and very nice and comfortable.  There is a free breakfast which has a great variety to choose from.  It's also in a good area with lots to do and places to eat.The only issue -- and it's a very minor quibble -- is that the walls seem to be a bit thin and you can hear noise from other rooms and the hallway.We will stay here again.  In fact, I've already booked it twice for trips to the area within the next month.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while in the area for my son's football camp at The Star in Frisco.  What a great find!  The hotel is new, and it's certainly the nicest LaQuinta I've stayed in to date.  The lobby is very modern and spacious.  Our room was a good size and very nice and comfortable.  There is a free breakfast which has a great variety to choose from.  It's also in a good area with lots to do and places to eat.The only issue -- and it's a very minor quibble -- is that the walls seem to be a bit thin and you can hear noise from other rooms and the hallway.We will stay here again.  In fact, I've already booked it twice for trips to the area within the next month.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r468325922-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>468325922</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Our favorite hotel in the area</t>
+  </si>
+  <si>
+    <t>We love this hotel! It's the second time we've stayed there in 5 months. We had such a great experience the 1st time, we knew we had to return this time around. Rooms are nice and modern, and breakfast is really good. We have absolutely no complaints with this hotel. We showed up a day early and Jesus was very accommodating allowing us to stay in our room and not making us move. Thank you, thank you for another wonderful stay. We love Dallas, so we will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>We love this hotel! It's the second time we've stayed there in 5 months. We had such a great experience the 1st time, we knew we had to return this time around. Rooms are nice and modern, and breakfast is really good. We have absolutely no complaints with this hotel. We showed up a day early and Jesus was very accommodating allowing us to stay in our room and not making us move. Thank you, thank you for another wonderful stay. We love Dallas, so we will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r465891958-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>465891958</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>This hotel is amazing! All my stay was wonderful!!!</t>
+  </si>
+  <si>
+    <t>The location, amenities and service is the best service I have received during all my Professional Career on a Business Hotel. Please keep it up the good work and all the excellent service. In special I would like to say thanks to Ingacio the cheff who made so delicious mexican souce and food! I hope to come back to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2017</t>
+  </si>
+  <si>
+    <t>The location, amenities and service is the best service I have received during all my Professional Career on a Business Hotel. Please keep it up the good work and all the excellent service. In special I would like to say thanks to Ingacio the cheff who made so delicious mexican souce and food! I hope to come back to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r464376844-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>464376844</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Great tasting coffee from the automatic machine</t>
+  </si>
+  <si>
+    <t>They have an automatic machine which makes coffee 24 hours. That may not sound like a lot, but I Wake Up Normally at 5 eastern time, and that's for central time. Even at that early hour I could count on going downstairs to have my coffee and start my day.The lobby is incredible period very spacious plenty of chargers at a Long Bar. And in the one area there's a little Nook where you can sit and get work done and there's a large TV there.There was one small error, I didn't get shampoo and conditioner one day. But I'll still give them five stars because Carine was so kind and helpful at the front desk from check into departure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded March 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2017</t>
+  </si>
+  <si>
+    <t>They have an automatic machine which makes coffee 24 hours. That may not sound like a lot, but I Wake Up Normally at 5 eastern time, and that's for central time. Even at that early hour I could count on going downstairs to have my coffee and start my day.The lobby is incredible period very spacious plenty of chargers at a Long Bar. And in the one area there's a little Nook where you can sit and get work done and there's a large TV there.There was one small error, I didn't get shampoo and conditioner one day. But I'll still give them five stars because Carine was so kind and helpful at the front desk from check into departure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r464035815-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>464035815</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Really nice</t>
+  </si>
+  <si>
+    <t>This hotel is 6 months old and very nice.  Décor is modern style and feels upscale.  We had junior suite and would highly recommend that selection.  Large room with a sofa and chairs and 42 inch TV.  Bed was very comfortable.  Heat and air is controlled by a thermostat which greatly increases comfort.  There is a beer and wine bar which is nice.  A special shoutout to Jesus who served me a glass of wine.  He checked 3 or 4 wine glasses to make sure they were clean.  He apologized saying he would take a glass to the kitchen and rewash it.  The breakfast selections are the largest we have seen at a La Quinta, including fresh fruit and yogurt. The staff was very friendly and helpful.  Although there isn't much within walking distance there are several restaurants within a couple of minutes driving distance.  I think La Quinta has hit a home run with this style hotel.  I wish they were all this nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is 6 months old and very nice.  Décor is modern style and feels upscale.  We had junior suite and would highly recommend that selection.  Large room with a sofa and chairs and 42 inch TV.  Bed was very comfortable.  Heat and air is controlled by a thermostat which greatly increases comfort.  There is a beer and wine bar which is nice.  A special shoutout to Jesus who served me a glass of wine.  He checked 3 or 4 wine glasses to make sure they were clean.  He apologized saying he would take a glass to the kitchen and rewash it.  The breakfast selections are the largest we have seen at a La Quinta, including fresh fruit and yogurt. The staff was very friendly and helpful.  Although there isn't much within walking distance there are several restaurants within a couple of minutes driving distance.  I think La Quinta has hit a home run with this style hotel.  I wish they were all this nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r463772381-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>463772381</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>A pleasure</t>
+  </si>
+  <si>
+    <t>This new property is located in a very commercial business park area with no stores or restaurants in walking distance, however it is a short drive to multiple choices for this.The exterior is rather stark in appearance and landscaping is yet to be complete, but it is a colorful, bright and fresh surprise inside.  Reception was friendly and helpful.  Several members of family were there for a funeral. They made some last minute changes to our room situation quickly. The breakfast offerings were beyond expectation, much more than average including a new coffee vending machine that was 5 star.!Comfortable beds and good, large shower was much appreciated. only negative was a personal one- I like soft pillows and these were firm. Stay here if you can.We especially appreciated the offers of condolence from the reception staff. ( Claire)MoreShow less</t>
+  </si>
+  <si>
+    <t>Carine T, Front Office Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>This new property is located in a very commercial business park area with no stores or restaurants in walking distance, however it is a short drive to multiple choices for this.The exterior is rather stark in appearance and landscaping is yet to be complete, but it is a colorful, bright and fresh surprise inside.  Reception was friendly and helpful.  Several members of family were there for a funeral. They made some last minute changes to our room situation quickly. The breakfast offerings were beyond expectation, much more than average including a new coffee vending machine that was 5 star.!Comfortable beds and good, large shower was much appreciated. only negative was a personal one- I like soft pillows and these were firm. Stay here if you can.We especially appreciated the offers of condolence from the reception staff. ( Claire)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519456-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485519456</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Great hotel and safe</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel for your stay. The hotel is close to the main hi-way, restaurants, grocery store, and close to my clients. The food for breakfast is presented well and served well and plenty.MoreShow less</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel for your stay. The hotel is close to the main hi-way, restaurants, grocery store, and close to my clients. The food for breakfast is presented well and served well and plenty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r461760792-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>461760792</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Chrissy's get away</t>
+  </si>
+  <si>
+    <t>The customer service was very, very good. The room was spotless, clean, no need of repairs,no cracks in wall, no stains on ceiling, well prepped with soap, towels, Pantene shampoo. The outside was very well kept, and the breakfast was excellent! There was definitely more of a selection than other hotels. No complaints on the food! It was a very homey kind of hotel, highly reccommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>Carine T, Front Office Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>The customer service was very, very good. The room was spotless, clean, no need of repairs,no cracks in wall, no stains on ceiling, well prepped with soap, towels, Pantene shampoo. The outside was very well kept, and the breakfast was excellent! There was definitely more of a selection than other hotels. No complaints on the food! It was a very homey kind of hotel, highly reccommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r461314309-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>461314309</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Comfortable, trendy and clean</t>
+  </si>
+  <si>
+    <t>The hotel is very new and clean, it has everything you needed for a comfortable stay without breaking the bank. Beds are very comfortable, wifi is fast, breakfast is ok as what you would expect from this hotel chain.  On the minus side, the shower is somewhat weak and you can hear the footsteps from the room above you.It is very close to major highway and the Plano Legacy mall is about 1.6 mile away, however, I don't see any restaurants in walking distance.  So you do need a car by staying here.Overall, it is a good place to stay and I will certainly come back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Carine T, Front Office Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very new and clean, it has everything you needed for a comfortable stay without breaking the bank. Beds are very comfortable, wifi is fast, breakfast is ok as what you would expect from this hotel chain.  On the minus side, the shower is somewhat weak and you can hear the footsteps from the room above you.It is very close to major highway and the Plano Legacy mall is about 1.6 mile away, however, I don't see any restaurants in walking distance.  So you do need a car by staying here.Overall, it is a good place to stay and I will certainly come back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519890-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485519890</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>It is new hotel with great service. No restaurant no vending machines on each floor. Pool looked bad. Room was good. Bad views. Breakfast was excellent which should run longer on weekends. Window shade bangs when you put it down. Other than that I liked the room. elevator stops with a jolt to it. Pretty bad for new elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>It is new hotel with great service. No restaurant no vending machines on each floor. Pool looked bad. Room was good. Bad views. Breakfast was excellent which should run longer on weekends. Window shade bangs when you put it down. Other than that I liked the room. elevator stops with a jolt to it. Pretty bad for new elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r459980967-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>459980967</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Beautiful new LQ</t>
+  </si>
+  <si>
+    <t>Great location and value.  The new LQ design is beautiful.  Rooms were roomy and very comfortable- especially liked shower only (no tub).  Yummy full breakfast and always love that LQ is pet friendly. Hope to see more LQs like this one around the country.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Carine T, Front Office Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Great location and value.  The new LQ design is beautiful.  Rooms were roomy and very comfortable- especially liked shower only (no tub).  Yummy full breakfast and always love that LQ is pet friendly. Hope to see more LQs like this one around the country.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r459829845-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>459829845</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Really cool hotel!</t>
+  </si>
+  <si>
+    <t>Went for a weekend trip to a football game.  We really enjoyed the layout of the hotel, comfortable rooms.  The lobby was very welcoming and seemed to be  a great gathering spot.  Highly recommend!  Location was perfect!MoreShow less</t>
+  </si>
+  <si>
+    <t>Went for a weekend trip to a football game.  We really enjoyed the layout of the hotel, comfortable rooms.  The lobby was very welcoming and seemed to be  a great gathering spot.  Highly recommend!  Location was perfect!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r458127617-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>458127617</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>We enjoyed our recent stay at the La Quinta - Legacy.  The staff was very helpful and friendly.  There was plenty of green space for my dog.  The room was nice and clean.  Pretty good selection for breakfast.  The hotel is close to a major highway and very close to pretty much anything you may need.  This was my first stay at a La Quinta and I must say I was very impressed.  I would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>We enjoyed our recent stay at the La Quinta - Legacy.  The staff was very helpful and friendly.  There was plenty of green space for my dog.  The room was nice and clean.  Pretty good selection for breakfast.  The hotel is close to a major highway and very close to pretty much anything you may need.  This was my first stay at a La Quinta and I must say I was very impressed.  I would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r457338717-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>457338717</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay!</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times due to a family medical situation.  This hotel has exeeded our expectations.  Wonderful staff, very courteous and accomodating.  The rooms are very clean, comfortable and nicely decorated.  The breakfast was great every morning.  The location is also excellent very convient to shopping and restaurants.  Jesus was very accomdating with our personal medical needs.  We would highly reccommend this hotel!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times due to a family medical situation.  This hotel has exeeded our expectations.  Wonderful staff, very courteous and accomodating.  The rooms are very clean, comfortable and nicely decorated.  The breakfast was great every morning.  The location is also excellent very convient to shopping and restaurants.  Jesus was very accomdating with our personal medical needs.  We would highly reccommend this hotel!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519750-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485519750</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Excellent &amp; new La Quinta</t>
+  </si>
+  <si>
+    <t>Beautiful and new with wonderful accommodations and amenities.  Very professional and helpful staff.  The breakfast was more than just pastries &amp; cereal.  It included fresh fruit, scrambled eggs, and more.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful and new with wonderful accommodations and amenities.  Very professional and helpful staff.  The breakfast was more than just pastries &amp; cereal.  It included fresh fruit, scrambled eggs, and more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519698-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485519698</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>The Best LQ so far</t>
+  </si>
+  <si>
+    <t>Bright, new, clean and contemporary hotel with an exceptional breakfast and incredibly helpful and friendly staff.  Would stay here again and again.  Just provide me with quarters AWAY from all of the dogs.  if you are in need of anything . . . ask for Stephanie,  she displayed an understanding and outpouring of hospitality and customer service beyond expectation.  She should be a corporate trainer for LQ.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bright, new, clean and contemporary hotel with an exceptional breakfast and incredibly helpful and friendly staff.  Would stay here again and again.  Just provide me with quarters AWAY from all of the dogs.  if you are in need of anything . . . ask for Stephanie,  she displayed an understanding and outpouring of hospitality and customer service beyond expectation.  She should be a corporate trainer for LQ.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519269-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485519269</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Loved my first La Quinta stay</t>
+  </si>
+  <si>
+    <t>Comfortable, reliable, convenient + a very friendly staff!  I would definitely stay at a La Quinta again for business or leisure travel.  The loyalty program, La Quinta Returns, is simple and rewarding!MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortable, reliable, convenient + a very friendly staff!  I would definitely stay at a La Quinta again for business or leisure travel.  The loyalty program, La Quinta Returns, is simple and rewarding!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519271-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485519271</t>
+  </si>
+  <si>
+    <t>Surprisingly Awesome</t>
+  </si>
+  <si>
+    <t>I booked a night at this LQ solely because of the location. I was in town for business and looking for something convenient and easy - this place exceeded my expectations! It was super clean, on-trend and well designed. The staff was very helpful. Overall, a wonderful experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Victor R, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2017</t>
+  </si>
+  <si>
+    <t>I booked a night at this LQ solely because of the location. I was in town for business and looking for something convenient and easy - this place exceeded my expectations! It was super clean, on-trend and well designed. The staff was very helpful. Overall, a wonderful experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519877-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485519877</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Very Modern and Clean hotel!</t>
+  </si>
+  <si>
+    <t>This hotel is so clean and new!! I consider myself a hotel snob and normally do not stay in anything less than 4 stars, but this hotel is so modern/new/clean that I would stay here for every trip i make to Plano! The breakfast has a huge selection of hot breakfast and cold breakfast! If you want healthy, they have it! If you want something hearty, they have it! They also have a bar and little market to buy some snack foods! Plus the gyms is really nice, my husband loved coming down in the mornings to get a nice run on the treadmill. I would highly recommend this hotel to everyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is so clean and new!! I consider myself a hotel snob and normally do not stay in anything less than 4 stars, but this hotel is so modern/new/clean that I would stay here for every trip i make to Plano! The breakfast has a huge selection of hot breakfast and cold breakfast! If you want healthy, they have it! If you want something hearty, they have it! They also have a bar and little market to buy some snack foods! Plus the gyms is really nice, my husband loved coming down in the mornings to get a nice run on the treadmill. I would highly recommend this hotel to everyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519055-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485519055</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Great quick get away stay!</t>
+  </si>
+  <si>
+    <t>Wonderful location at this new LaQuinta.  Close to grocery store and shopping. Excellent coffee machine - mocha available all day! Friendly staff. Well-appointed room. Recommend bringing your own pillow until theirs get broken in.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Thailer H, General Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Wonderful location at this new LaQuinta.  Close to grocery store and shopping. Excellent coffee machine - mocha available all day! Friendly staff. Well-appointed room. Recommend bringing your own pillow until theirs get broken in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r449198332-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>449198332</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Excellent place to spend some time</t>
+  </si>
+  <si>
+    <t>We had a lovely visit here, and extended our stay twice as we were so comfortable. The beds are super comfortable and the place was very quiet and peaceful. The free breakfast was of a very high quality and the gym and laundry were very much appreciated. Best of all was the very helpful and friendly staff. The management of this hotel should be proud!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Carine T, Front Office Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>We had a lovely visit here, and extended our stay twice as we were so comfortable. The beds are super comfortable and the place was very quiet and peaceful. The free breakfast was of a very high quality and the gym and laundry were very much appreciated. Best of all was the very helpful and friendly staff. The management of this hotel should be proud!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r443617443-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>443617443</t>
+  </si>
+  <si>
+    <t>12/11/2016</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>We stayed in two rooms with family.  We had two sick grandkids and the staff went over and above to help us out.  Everyone was friendly, courteous and most helpful.  The hotel is really nice!  I love the decor.  The location is good because it is a block off the main highway so the rooms are very quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Carine T, Front Desk Representative at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded December 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2016</t>
+  </si>
+  <si>
+    <t>We stayed in two rooms with family.  We had two sick grandkids and the staff went over and above to help us out.  Everyone was friendly, courteous and most helpful.  The hotel is really nice!  I love the decor.  The location is good because it is a block off the main highway so the rooms are very quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519433-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485519433</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>New Clean Quiet</t>
+  </si>
+  <si>
+    <t>Very happy with my stay at this hotel. Staff was very helpful.  Breakfast was average LaQuinta fare.  Modern exterior and interior decor. It is so new that Uber had to hunt for it a little.  It is extremely convenient to Dallas North Tollway. The Legacy area has shops and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very happy with my stay at this hotel. Staff was very helpful.  Breakfast was average LaQuinta fare.  Modern exterior and interior decor. It is so new that Uber had to hunt for it a little.  It is extremely convenient to Dallas North Tollway. The Legacy area has shops and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r441957109-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>441957109</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Bsst serviced Hotel!</t>
+  </si>
+  <si>
+    <t>We had the best and most friendly service at our stay! Staff had excellent customer service, room was so comfortable and clean! Definitely will be staying here again when we are back in the Plano area! MoreShow less</t>
+  </si>
+  <si>
+    <t>hwwkriya, Guest Relations Manager at La Quinta Inn &amp; Suites Plano Legacy Frisco, responded to this reviewResponded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2016</t>
+  </si>
+  <si>
+    <t>We had the best and most friendly service at our stay! Staff had excellent customer service, room was so comfortable and clean! Definitely will be staying here again when we are back in the Plano area! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519186-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485519186</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>Wonderful new hotel</t>
+  </si>
+  <si>
+    <t>Great location and value.  New construction with excellent ammenities!  The hotel staff were very friendly and helpful.  Throughout the stay everyone consistently greets guests to make sure you feel welcome.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location and value.  New construction with excellent ammenities!  The hotel staff were very friendly and helpful.  Throughout the stay everyone consistently greets guests to make sure you feel welcome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519000-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>485519000</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Mckinney/Dallas Metroplex Visit</t>
+  </si>
+  <si>
+    <t>Beautiful, new look hotel. Modern décor. Excellent mid range, value priced including full breakfast bar. Staff friendly and helpful. Easy access, close to freeways for quick access to any part of city via connecting freeways. Highly recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Beautiful, new look hotel. Modern décor. Excellent mid range, value priced including full breakfast bar. Staff friendly and helpful. Easy access, close to freeways for quick access to any part of city via connecting freeways. Highly recommendMore</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2854,7145 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>109</v>
+      </c>
+      <c r="X13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>109</v>
+      </c>
+      <c r="X14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>109</v>
+      </c>
+      <c r="X15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>168</v>
+      </c>
+      <c r="X18" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>168</v>
+      </c>
+      <c r="X19" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>168</v>
+      </c>
+      <c r="X20" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>168</v>
+      </c>
+      <c r="X21" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>141</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>168</v>
+      </c>
+      <c r="X22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>168</v>
+      </c>
+      <c r="X23" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>168</v>
+      </c>
+      <c r="X24" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>62</v>
+      </c>
+      <c r="O25" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>168</v>
+      </c>
+      <c r="X25" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>217</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>218</v>
+      </c>
+      <c r="X26" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s">
+        <v>225</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>218</v>
+      </c>
+      <c r="X27" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>218</v>
+      </c>
+      <c r="X28" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>62</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>218</v>
+      </c>
+      <c r="X29" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>243</v>
+      </c>
+      <c r="X30" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" t="s">
+        <v>161</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>243</v>
+      </c>
+      <c r="X31" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>217</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>257</v>
+      </c>
+      <c r="X32" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>261</v>
+      </c>
+      <c r="J33" t="s">
+        <v>254</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>217</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>257</v>
+      </c>
+      <c r="X33" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>217</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>257</v>
+      </c>
+      <c r="X34" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35" t="s">
+        <v>274</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>217</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>257</v>
+      </c>
+      <c r="X35" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>277</v>
+      </c>
+      <c r="J36" t="s">
+        <v>278</v>
+      </c>
+      <c r="K36" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>217</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>281</v>
+      </c>
+      <c r="X36" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>285</v>
+      </c>
+      <c r="J37" t="s">
+        <v>286</v>
+      </c>
+      <c r="K37" t="s">
+        <v>287</v>
+      </c>
+      <c r="L37" t="s">
+        <v>288</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>289</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>290</v>
+      </c>
+      <c r="X37" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>289</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>298</v>
+      </c>
+      <c r="X38" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>302</v>
+      </c>
+      <c r="J39" t="s">
+        <v>303</v>
+      </c>
+      <c r="K39" t="s">
+        <v>304</v>
+      </c>
+      <c r="L39" t="s">
+        <v>305</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>289</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>298</v>
+      </c>
+      <c r="X39" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>307</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>308</v>
+      </c>
+      <c r="J40" t="s">
+        <v>303</v>
+      </c>
+      <c r="K40" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>289</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>298</v>
+      </c>
+      <c r="X40" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>313</v>
+      </c>
+      <c r="J41" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" t="s">
+        <v>315</v>
+      </c>
+      <c r="L41" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>289</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>317</v>
+      </c>
+      <c r="X41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>320</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>321</v>
+      </c>
+      <c r="J42" t="s">
+        <v>322</v>
+      </c>
+      <c r="K42" t="s">
+        <v>323</v>
+      </c>
+      <c r="L42" t="s">
+        <v>324</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>289</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>317</v>
+      </c>
+      <c r="X42" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>327</v>
+      </c>
+      <c r="J43" t="s">
+        <v>328</v>
+      </c>
+      <c r="K43" t="s">
+        <v>329</v>
+      </c>
+      <c r="L43" t="s">
+        <v>330</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>289</v>
+      </c>
+      <c r="O43" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>317</v>
+      </c>
+      <c r="X43" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>333</v>
+      </c>
+      <c r="J44" t="s">
+        <v>334</v>
+      </c>
+      <c r="K44" t="s">
+        <v>335</v>
+      </c>
+      <c r="L44" t="s">
+        <v>336</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>337</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>338</v>
+      </c>
+      <c r="X44" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>341</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>342</v>
+      </c>
+      <c r="J45" t="s">
+        <v>343</v>
+      </c>
+      <c r="K45" t="s">
+        <v>344</v>
+      </c>
+      <c r="L45" t="s">
+        <v>345</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>346</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>347</v>
+      </c>
+      <c r="X45" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>350</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>351</v>
+      </c>
+      <c r="J46" t="s">
+        <v>352</v>
+      </c>
+      <c r="K46" t="s">
+        <v>353</v>
+      </c>
+      <c r="L46" t="s">
+        <v>354</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>346</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>347</v>
+      </c>
+      <c r="X46" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>356</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>357</v>
+      </c>
+      <c r="J47" t="s">
+        <v>358</v>
+      </c>
+      <c r="K47" t="s">
+        <v>359</v>
+      </c>
+      <c r="L47" t="s">
+        <v>360</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>361</v>
+      </c>
+      <c r="O47" t="s">
+        <v>161</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>362</v>
+      </c>
+      <c r="X47" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>365</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>366</v>
+      </c>
+      <c r="J48" t="s">
+        <v>367</v>
+      </c>
+      <c r="K48" t="s">
+        <v>368</v>
+      </c>
+      <c r="L48" t="s">
+        <v>369</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>361</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>370</v>
+      </c>
+      <c r="X48" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>373</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>374</v>
+      </c>
+      <c r="J49" t="s">
+        <v>375</v>
+      </c>
+      <c r="K49" t="s">
+        <v>376</v>
+      </c>
+      <c r="L49" t="s">
+        <v>377</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>361</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>378</v>
+      </c>
+      <c r="X49" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>381</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>382</v>
+      </c>
+      <c r="J50" t="s">
+        <v>383</v>
+      </c>
+      <c r="K50" t="s">
+        <v>384</v>
+      </c>
+      <c r="L50" t="s">
+        <v>385</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>361</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>378</v>
+      </c>
+      <c r="X50" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>387</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>388</v>
+      </c>
+      <c r="J51" t="s">
+        <v>389</v>
+      </c>
+      <c r="K51" t="s">
+        <v>390</v>
+      </c>
+      <c r="L51" t="s">
+        <v>391</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>392</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>378</v>
+      </c>
+      <c r="X51" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>394</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>395</v>
+      </c>
+      <c r="J52" t="s">
+        <v>396</v>
+      </c>
+      <c r="K52" t="s">
+        <v>397</v>
+      </c>
+      <c r="L52" t="s">
+        <v>398</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>392</v>
+      </c>
+      <c r="O52" t="s">
+        <v>73</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>399</v>
+      </c>
+      <c r="X52" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>402</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>403</v>
+      </c>
+      <c r="J53" t="s">
+        <v>404</v>
+      </c>
+      <c r="K53" t="s">
+        <v>405</v>
+      </c>
+      <c r="L53" t="s">
+        <v>406</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>392</v>
+      </c>
+      <c r="O53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>378</v>
+      </c>
+      <c r="X53" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>408</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>409</v>
+      </c>
+      <c r="J54" t="s">
+        <v>410</v>
+      </c>
+      <c r="K54" t="s">
+        <v>411</v>
+      </c>
+      <c r="L54" t="s">
+        <v>412</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>392</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>378</v>
+      </c>
+      <c r="X54" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>414</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" t="s">
+        <v>416</v>
+      </c>
+      <c r="K55" t="s">
+        <v>417</v>
+      </c>
+      <c r="L55" t="s">
+        <v>418</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>392</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>419</v>
+      </c>
+      <c r="X55" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>422</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>423</v>
+      </c>
+      <c r="J56" t="s">
+        <v>424</v>
+      </c>
+      <c r="K56" t="s">
+        <v>425</v>
+      </c>
+      <c r="L56" t="s">
+        <v>426</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>392</v>
+      </c>
+      <c r="O56" t="s">
+        <v>161</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>419</v>
+      </c>
+      <c r="X56" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>428</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>429</v>
+      </c>
+      <c r="J57" t="s">
+        <v>430</v>
+      </c>
+      <c r="K57" t="s">
+        <v>431</v>
+      </c>
+      <c r="L57" t="s">
+        <v>432</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>433</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>434</v>
+      </c>
+      <c r="X57" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>437</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>438</v>
+      </c>
+      <c r="J58" t="s">
+        <v>430</v>
+      </c>
+      <c r="K58" t="s">
+        <v>439</v>
+      </c>
+      <c r="L58" t="s">
+        <v>440</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>433</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>434</v>
+      </c>
+      <c r="X58" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>442</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>443</v>
+      </c>
+      <c r="J59" t="s">
+        <v>444</v>
+      </c>
+      <c r="K59" t="s">
+        <v>445</v>
+      </c>
+      <c r="L59" t="s">
+        <v>446</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>433</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>447</v>
+      </c>
+      <c r="X59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>450</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J60" t="s">
+        <v>444</v>
+      </c>
+      <c r="K60" t="s">
+        <v>452</v>
+      </c>
+      <c r="L60" t="s">
+        <v>453</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>433</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>447</v>
+      </c>
+      <c r="X60" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>455</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>456</v>
+      </c>
+      <c r="J61" t="s">
+        <v>444</v>
+      </c>
+      <c r="K61" t="s">
+        <v>457</v>
+      </c>
+      <c r="L61" t="s">
+        <v>458</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>433</v>
+      </c>
+      <c r="O61" t="s">
+        <v>90</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>447</v>
+      </c>
+      <c r="X61" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>460</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>461</v>
+      </c>
+      <c r="J62" t="s">
+        <v>462</v>
+      </c>
+      <c r="K62" t="s">
+        <v>463</v>
+      </c>
+      <c r="L62" t="s">
+        <v>464</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>465</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>466</v>
+      </c>
+      <c r="X62" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>469</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>470</v>
+      </c>
+      <c r="J63" t="s">
+        <v>471</v>
+      </c>
+      <c r="K63" t="s">
+        <v>472</v>
+      </c>
+      <c r="L63" t="s">
+        <v>473</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>474</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>475</v>
+      </c>
+      <c r="X63" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>478</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>479</v>
+      </c>
+      <c r="J64" t="s">
+        <v>471</v>
+      </c>
+      <c r="K64" t="s">
+        <v>480</v>
+      </c>
+      <c r="L64" t="s">
+        <v>481</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>474</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>475</v>
+      </c>
+      <c r="X64" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>483</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>484</v>
+      </c>
+      <c r="J65" t="s">
+        <v>485</v>
+      </c>
+      <c r="K65" t="s">
+        <v>486</v>
+      </c>
+      <c r="L65" t="s">
+        <v>487</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>474</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>475</v>
+      </c>
+      <c r="X65" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>489</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>490</v>
+      </c>
+      <c r="J66" t="s">
+        <v>491</v>
+      </c>
+      <c r="K66" t="s">
+        <v>492</v>
+      </c>
+      <c r="L66" t="s">
+        <v>493</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>474</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>494</v>
+      </c>
+      <c r="X66" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>497</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>498</v>
+      </c>
+      <c r="J67" t="s">
+        <v>499</v>
+      </c>
+      <c r="K67" t="s">
+        <v>500</v>
+      </c>
+      <c r="L67" t="s">
+        <v>501</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>502</v>
+      </c>
+      <c r="O67" t="s">
+        <v>73</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>503</v>
+      </c>
+      <c r="X67" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>506</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>507</v>
+      </c>
+      <c r="J68" t="s">
+        <v>499</v>
+      </c>
+      <c r="K68" t="s">
+        <v>508</v>
+      </c>
+      <c r="L68" t="s">
+        <v>509</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>474</v>
+      </c>
+      <c r="O68" t="s">
+        <v>90</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>503</v>
+      </c>
+      <c r="X68" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>511</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>512</v>
+      </c>
+      <c r="J69" t="s">
+        <v>513</v>
+      </c>
+      <c r="K69" t="s">
+        <v>514</v>
+      </c>
+      <c r="L69" t="s">
+        <v>515</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>474</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>516</v>
+      </c>
+      <c r="X69" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>519</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>520</v>
+      </c>
+      <c r="J70" t="s">
+        <v>521</v>
+      </c>
+      <c r="K70" t="s">
+        <v>425</v>
+      </c>
+      <c r="L70" t="s">
+        <v>522</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>474</v>
+      </c>
+      <c r="O70" t="s">
+        <v>73</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>523</v>
+      </c>
+      <c r="X70" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>526</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>527</v>
+      </c>
+      <c r="J71" t="s">
+        <v>528</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s">
+        <v>529</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>474</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>523</v>
+      </c>
+      <c r="X71" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>531</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>532</v>
+      </c>
+      <c r="J72" t="s">
+        <v>533</v>
+      </c>
+      <c r="K72" t="s">
+        <v>534</v>
+      </c>
+      <c r="L72" t="s">
+        <v>535</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>502</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>536</v>
+      </c>
+      <c r="X72" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>539</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>540</v>
+      </c>
+      <c r="J73" t="s">
+        <v>533</v>
+      </c>
+      <c r="K73" t="s">
+        <v>541</v>
+      </c>
+      <c r="L73" t="s">
+        <v>542</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>502</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>543</v>
+      </c>
+      <c r="X73" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>546</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>547</v>
+      </c>
+      <c r="J74" t="s">
+        <v>548</v>
+      </c>
+      <c r="K74" t="s">
+        <v>549</v>
+      </c>
+      <c r="L74" t="s">
+        <v>550</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>551</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>552</v>
+      </c>
+      <c r="X74" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>555</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>556</v>
+      </c>
+      <c r="J75" t="s">
+        <v>557</v>
+      </c>
+      <c r="K75" t="s">
+        <v>558</v>
+      </c>
+      <c r="L75" t="s">
+        <v>559</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>551</v>
+      </c>
+      <c r="O75" t="s">
+        <v>161</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>560</v>
+      </c>
+      <c r="X75" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>563</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>564</v>
+      </c>
+      <c r="J76" t="s">
+        <v>565</v>
+      </c>
+      <c r="K76" t="s">
+        <v>566</v>
+      </c>
+      <c r="L76" t="s">
+        <v>567</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>551</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>543</v>
+      </c>
+      <c r="X76" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>569</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>570</v>
+      </c>
+      <c r="J77" t="s">
+        <v>571</v>
+      </c>
+      <c r="K77" t="s">
+        <v>572</v>
+      </c>
+      <c r="L77" t="s">
+        <v>573</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>551</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>536</v>
+      </c>
+      <c r="X77" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>575</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>576</v>
+      </c>
+      <c r="J78" t="s">
+        <v>577</v>
+      </c>
+      <c r="K78" t="s">
+        <v>578</v>
+      </c>
+      <c r="L78" t="s">
+        <v>579</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>551</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>536</v>
+      </c>
+      <c r="X78" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>581</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>582</v>
+      </c>
+      <c r="J79" t="s">
+        <v>583</v>
+      </c>
+      <c r="K79" t="s">
+        <v>584</v>
+      </c>
+      <c r="L79" t="s">
+        <v>585</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>551</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>536</v>
+      </c>
+      <c r="X79" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>587</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>588</v>
+      </c>
+      <c r="J80" t="s">
+        <v>589</v>
+      </c>
+      <c r="K80" t="s">
+        <v>590</v>
+      </c>
+      <c r="L80" t="s">
+        <v>591</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>592</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>536</v>
+      </c>
+      <c r="X80" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>594</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>595</v>
+      </c>
+      <c r="J81" t="s">
+        <v>596</v>
+      </c>
+      <c r="K81" t="s">
+        <v>235</v>
+      </c>
+      <c r="L81" t="s">
+        <v>597</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>592</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>598</v>
+      </c>
+      <c r="X81" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>601</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>602</v>
+      </c>
+      <c r="J82" t="s">
+        <v>603</v>
+      </c>
+      <c r="K82" t="s">
+        <v>604</v>
+      </c>
+      <c r="L82" t="s">
+        <v>605</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>592</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>536</v>
+      </c>
+      <c r="X82" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>607</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>608</v>
+      </c>
+      <c r="J83" t="s">
+        <v>609</v>
+      </c>
+      <c r="K83" t="s">
+        <v>610</v>
+      </c>
+      <c r="L83" t="s">
+        <v>611</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>592</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>612</v>
+      </c>
+      <c r="X83" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>615</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>616</v>
+      </c>
+      <c r="J84" t="s">
+        <v>617</v>
+      </c>
+      <c r="K84" t="s">
+        <v>618</v>
+      </c>
+      <c r="L84" t="s">
+        <v>619</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>337</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>620</v>
+      </c>
+      <c r="X84" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>623</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>624</v>
+      </c>
+      <c r="J85" t="s">
+        <v>625</v>
+      </c>
+      <c r="K85" t="s">
+        <v>626</v>
+      </c>
+      <c r="L85" t="s">
+        <v>627</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>592</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>620</v>
+      </c>
+      <c r="X85" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>629</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>630</v>
+      </c>
+      <c r="J86" t="s">
+        <v>631</v>
+      </c>
+      <c r="K86" t="s">
+        <v>632</v>
+      </c>
+      <c r="L86" t="s">
+        <v>633</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>337</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>634</v>
+      </c>
+      <c r="X86" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>637</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>638</v>
+      </c>
+      <c r="J87" t="s">
+        <v>639</v>
+      </c>
+      <c r="K87" t="s">
+        <v>640</v>
+      </c>
+      <c r="L87" t="s">
+        <v>641</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>337</v>
+      </c>
+      <c r="O87" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>543</v>
+      </c>
+      <c r="X87" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>643</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>644</v>
+      </c>
+      <c r="J88" t="s">
+        <v>645</v>
+      </c>
+      <c r="K88" t="s">
+        <v>646</v>
+      </c>
+      <c r="L88" t="s">
+        <v>647</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>337</v>
+      </c>
+      <c r="O88" t="s">
+        <v>90</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>648</v>
+      </c>
+      <c r="X88" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>651</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>652</v>
+      </c>
+      <c r="J89" t="s">
+        <v>653</v>
+      </c>
+      <c r="K89" t="s">
+        <v>654</v>
+      </c>
+      <c r="L89" t="s">
+        <v>655</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>337</v>
+      </c>
+      <c r="O89" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>656</v>
+      </c>
+      <c r="X89" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>659</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>660</v>
+      </c>
+      <c r="J90" t="s">
+        <v>661</v>
+      </c>
+      <c r="K90" t="s">
+        <v>662</v>
+      </c>
+      <c r="L90" t="s">
+        <v>663</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>337</v>
+      </c>
+      <c r="O90" t="s">
+        <v>73</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>543</v>
+      </c>
+      <c r="X90" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>665</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>666</v>
+      </c>
+      <c r="J91" t="s">
+        <v>667</v>
+      </c>
+      <c r="K91" t="s">
+        <v>668</v>
+      </c>
+      <c r="L91" t="s">
+        <v>669</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>670</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>671</v>
+      </c>
+      <c r="X91" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>674</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>675</v>
+      </c>
+      <c r="J92" t="s">
+        <v>676</v>
+      </c>
+      <c r="K92" t="s">
+        <v>677</v>
+      </c>
+      <c r="L92" t="s">
+        <v>678</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>670</v>
+      </c>
+      <c r="O92" t="s">
+        <v>90</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>671</v>
+      </c>
+      <c r="X92" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>680</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>681</v>
+      </c>
+      <c r="J93" t="s">
+        <v>682</v>
+      </c>
+      <c r="K93" t="s">
+        <v>273</v>
+      </c>
+      <c r="L93" t="s">
+        <v>683</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>337</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>684</v>
+      </c>
+      <c r="X93" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>687</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>688</v>
+      </c>
+      <c r="J94" t="s">
+        <v>689</v>
+      </c>
+      <c r="K94" t="s">
+        <v>690</v>
+      </c>
+      <c r="L94" t="s">
+        <v>691</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>337</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>692</v>
+      </c>
+      <c r="X94" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>695</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>696</v>
+      </c>
+      <c r="J95" t="s">
+        <v>697</v>
+      </c>
+      <c r="K95" t="s">
+        <v>698</v>
+      </c>
+      <c r="L95" t="s">
+        <v>699</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>670</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>543</v>
+      </c>
+      <c r="X95" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>701</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>702</v>
+      </c>
+      <c r="J96" t="s">
+        <v>703</v>
+      </c>
+      <c r="K96" t="s">
+        <v>704</v>
+      </c>
+      <c r="L96" t="s">
+        <v>705</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>670</v>
+      </c>
+      <c r="O96" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>543</v>
+      </c>
+      <c r="X96" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>707</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>708</v>
+      </c>
+      <c r="J97" t="s">
+        <v>709</v>
+      </c>
+      <c r="K97" t="s">
+        <v>710</v>
+      </c>
+      <c r="L97" t="s">
+        <v>711</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>670</v>
+      </c>
+      <c r="O97" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>543</v>
+      </c>
+      <c r="X97" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>713</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>714</v>
+      </c>
+      <c r="J98" t="s">
+        <v>709</v>
+      </c>
+      <c r="K98" t="s">
+        <v>715</v>
+      </c>
+      <c r="L98" t="s">
+        <v>716</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>670</v>
+      </c>
+      <c r="O98" t="s">
+        <v>63</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>717</v>
+      </c>
+      <c r="X98" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>720</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>721</v>
+      </c>
+      <c r="J99" t="s">
+        <v>722</v>
+      </c>
+      <c r="K99" t="s">
+        <v>723</v>
+      </c>
+      <c r="L99" t="s">
+        <v>724</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>670</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>717</v>
+      </c>
+      <c r="X99" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>726</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>727</v>
+      </c>
+      <c r="J100" t="s">
+        <v>728</v>
+      </c>
+      <c r="K100" t="s">
+        <v>729</v>
+      </c>
+      <c r="L100" t="s">
+        <v>730</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>731</v>
+      </c>
+      <c r="O100" t="s">
+        <v>73</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>732</v>
+      </c>
+      <c r="X100" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>735</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>736</v>
+      </c>
+      <c r="J101" t="s">
+        <v>737</v>
+      </c>
+      <c r="K101" t="s">
+        <v>738</v>
+      </c>
+      <c r="L101" t="s">
+        <v>739</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>670</v>
+      </c>
+      <c r="O101" t="s">
+        <v>73</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>740</v>
+      </c>
+      <c r="X101" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>743</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>744</v>
+      </c>
+      <c r="J102" t="s">
+        <v>745</v>
+      </c>
+      <c r="K102" t="s">
+        <v>746</v>
+      </c>
+      <c r="L102" t="s">
+        <v>747</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>731</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>748</v>
+      </c>
+      <c r="X102" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>751</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>752</v>
+      </c>
+      <c r="J103" t="s">
+        <v>753</v>
+      </c>
+      <c r="K103" t="s">
+        <v>754</v>
+      </c>
+      <c r="L103" t="s">
+        <v>755</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>731</v>
+      </c>
+      <c r="O103" t="s">
+        <v>63</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>543</v>
+      </c>
+      <c r="X103" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>757</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>758</v>
+      </c>
+      <c r="J104" t="s">
+        <v>759</v>
+      </c>
+      <c r="K104" t="s">
+        <v>760</v>
+      </c>
+      <c r="L104" t="s">
+        <v>761</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>731</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>762</v>
+      </c>
+      <c r="X104" t="s">
+        <v>763</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>765</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>766</v>
+      </c>
+      <c r="J105" t="s">
+        <v>767</v>
+      </c>
+      <c r="K105" t="s">
+        <v>768</v>
+      </c>
+      <c r="L105" t="s">
+        <v>769</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>731</v>
+      </c>
+      <c r="O105" t="s">
+        <v>63</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>543</v>
+      </c>
+      <c r="X105" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>64898</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>771</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>772</v>
+      </c>
+      <c r="J106" t="s">
+        <v>773</v>
+      </c>
+      <c r="K106" t="s">
+        <v>774</v>
+      </c>
+      <c r="L106" t="s">
+        <v>775</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>776</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>732</v>
+      </c>
+      <c r="X106" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>777</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_515.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_515.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="880">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>S A L</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This hotel was priced right and was very clean and comfortable. My wife thought it had just opened, but it is two years old. The rooms were large with comfortable beds and a big bathroom. Breakfast was good for a quick bite before starting the day.More</t>
   </si>
   <si>
+    <t>caldwcar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r561351537-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>A new La Quinta has everything you need for a great stay. The property is well designed. The rooms are large and the bathroom is well laid out. The property is very new and super clean. There are no weird smells or mold. The parking lot is right outside the front door and easy access. The hotel has a pool. Free breakfast and free wifi. The staff is very nice and helpful. I had a great stay and will most likely stay here again. It is very close to Legacy Park without the high prices. The housekeeping did a great job. I had no problems.More</t>
   </si>
   <si>
+    <t>linda6122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r584949580-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>Very clean, quiet, great location. Beds are very comfortable. Check in and out very easy, carts available at front doors for moving luggage.  A little difficult to find because of construction on that street, we had to circle 3 times, it is behind dance studio same driveway. Breakfast was only mediocre but I would rather have a comfortable room and great staff !More</t>
   </si>
   <si>
+    <t>Mike K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r583414338-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>We were on third floor, could here kids running above us.  Pool is small.  free breakfast below LQ standards. Bar open 5 til 10PM.  Have ok selection in small food section.  Room was clean and very new and modern.  Hotel only 2 years or so old.  Room cleaned daily,  Pantene products.More</t>
   </si>
   <si>
+    <t>BuffyWhit13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r583023598-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>The hotel is so nice! The room is impeccable. Close to everything we wanted and needed to do. Breakfast was a hotel buffet breakfast but it was always stocked. The room was cleaned every day of our stay. Great stay! More</t>
   </si>
   <si>
+    <t>equibird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r582549203-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -312,6 +330,9 @@
     <t>Needed a place close to Legacy West. La Quinta was perfect. Great value. Great service (super nice people.) I lost my phone and they drove me to Legacy West via shuttle. Went out of their way to make my one night stay excellent.More</t>
   </si>
   <si>
+    <t>stacyp943</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r581157725-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -328,6 +349,9 @@
   </si>
   <si>
     <t>I was very impressed with this Hotel.  Hotel was updated and was very nice with bright inviting colors. Rooms were large and spacious with really nice bathrooms.  Staff was nice and accomodating.  I would recommend this hotel to anyone for business or pleasure.More</t>
+  </si>
+  <si>
+    <t>pharris24</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r580835006-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
@@ -358,6 +382,9 @@
 I also don’t understand...Heads up that this hotel is not pet friendly, as are almost all other LaQuintas. At the time we made our reservations, TripAdviser had it listed as pet friendly. I mentioned that at check-in, and the front desk person made a note to let the manager know.  Also, as of today, it is not listed on the pet friendly exceptions on the main LaQuinta website.  Fortunately, I called the hotel to doublecheck the pet policy.  We almost didn’t stay here because of that. Also, the reservation couldn’t be cancelled after the day before, even with a credit card guarantee. Most hotels will offer a slightly (slightly!) higher rate that can be cancelled up to 6pm on the day of check-in. Life happens, and we prefer having an option to cancel if our plans change. If we’d had more time when we were making reservations, we’d have stayed somewhere else. As it was, we waited until the morning of our trip to make reservations.  Another reason we like LaQuintas is that there are almost always healthy breakfast choices. I do love that they had hard-boiled eggs, as well as a great fruit salad that included fresh pineapple and diced apples. A minor complaint was that there was no low-fat yogurt; the only yogurt choice was very high in calories and sugars. There were several tea bag choices, but no plain black or green tea, only flavored teas.  I also don’t understand why you can’t get LaQuinta reward points if you come to the LQ website from Trip Adviser.  There were business cards in the breakfast room requesting reviews on Trip Adviser. The survey sent from LaQuinta included an option to add a Trip Adviser review. And yet you penalize lodgers who use Trip Adviser to find a hotel? All that said, the rooms were clean, beds were comfortable, staff was nice. (They do need a card in the room that listed the tv channels, as the online tv guide was very cumbersome.) If your plans are fixed such that there’s no chance of cancellation and you are not traveling with a pup, this is a good option.  More</t>
   </si>
   <si>
+    <t>TCP_1983</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r580730167-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -376,6 +403,9 @@
     <t>The rooms were great! But staff was not friendly at all! Also, i forgot to bring toothbrush, toothpaste, deodorant, etc.. hotel did not have any! I have stayed in cheap hotels and they all have them. But the worst thing is the staff they are rude and not helpful. This is my first time in this hotel and last. I started a job that will require me to travel here every other week and i WILL NOT stay here and i would not recommend it to anyone. There are better hotels around.More</t>
   </si>
   <si>
+    <t>Victor M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r580539098-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -394,6 +424,9 @@
     <t>From the welcoming staff, breakfast hostess, superb housekeeping, it far exceeded what I expected.  Have stayed at various hotels in Plano but this has been the best.  They know how to treat their guests.  The genuine smiles are priceless. Thanks to all who made our stay the best ever.More</t>
   </si>
   <si>
+    <t>marisolr1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r580305767-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -412,6 +445,9 @@
     <t>The staff and rooms were very nice. It wasn't a spectacular experience but definitely nice to stay for a short visit. The beds were very comfortable and the shower was very nice (however there are not tubs).More</t>
   </si>
   <si>
+    <t>bree89nana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r578939071-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -430,6 +466,9 @@
     <t>The hotel was very clean and well kept, also very modern looking. The staff was welcoming and friendly. We didn't use housekeeping each morning but the ladies were very happy to give us any refills we needed, which was nice. Also, the little city was about 30-40 minutes outside of Dallas which wasn't bad but it was a very cute and quiet neighborhood to stay in. We would definitely stay here again!More</t>
   </si>
   <si>
+    <t>ronkutz125</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r578571803-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -451,6 +490,9 @@
     <t>This hotel in relatively new and is very modern in its styling and furnishings. The room was fairly large and quite comfortable. It is in close proximity to Baylor Hospital of Plano, making it very convenient for my one night stay while my wife was having surgery.More</t>
   </si>
   <si>
+    <t>Y6202OHjulios</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r577996222-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -469,6 +511,9 @@
     <t>This Hotel is realy nice, all clean, has good services, breakfast is awesome, great bedrooms, nice environmnet, and good place to stay for business. The best thing is the shuttle service to ride you 5 mi around for free any time you need!More</t>
   </si>
   <si>
+    <t>Allen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r577123993-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -493,6 +538,9 @@
     <t>New hotel and the property is in a nice location. Couple of complaints though. Pillows were too hard to sleep on. And the breakfast had lots of varieties, but unfortunately were all stale. Would have rather preferred lesser choices but better quality. More</t>
   </si>
   <si>
+    <t>robertdW1970BB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r577293421-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -511,6 +559,9 @@
     <t>Terrible noise on the floor above me, hardly got any sleep. Other than that, this would have been a nice hotel. The staff was not terribly attentive but not rude either. Bed seemed OK and the room was fairly clean. On a side note, try not to book an ADA room if you value your shower time, as the shower head only raises to about chest level.More</t>
   </si>
   <si>
+    <t>heatherpI952MW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r576165379-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -535,6 +586,9 @@
     <t>The La Quinta Legacy was a good choice for my business trip stay. Economical and very close to my office visit location, the La Quinta was comfortable and close to dining choices, and easy to find from Dallas Love airport! I would highly recommend, and will be staying here in the future!More</t>
   </si>
   <si>
+    <t>Keed J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r575770280-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -553,6 +607,9 @@
     <t>We chose this hotel out of a few others who were a little higher in cost.  We didn't lose out on anything at all.  The room, hotel, and grounds were clean pretty close to brand new looking.  The staff was helpful, and the breakfast was excellent.  We had no issues with our hotel room either.More</t>
   </si>
   <si>
+    <t>carolynleeder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r575638966-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -568,6 +625,9 @@
     <t>Nice hotel close to downtown planoFront desk staff and housekeeping were very pleasant and helpful.Nice place to stay for business.Didn't use shuttle but assuming it dies airport runs. Overall a nice clean property.More</t>
   </si>
   <si>
+    <t>micamcdonald</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r575409365-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -586,6 +646,9 @@
     <t>When I called in reservations, Amy had the worst customer service I have EVER come across. Later that day I noticed my cc was charged $355???? I called back and an extremely rude Amy said she doesnt know how to fix it. Talked to the manger Taylor and she said she released the funds on her end but it could take up to 5 days to get the money back!When we arrived I asked for a blanket for the pull out couch and they said they didnt have any. They didnt have any the second night either!!! So I went to the store and bought my own blankets. Breakfast was completely gone both mornings and when we asked when more food would be coming out the girl rolled her eyes and said in 8-10 min if you want to wait....I can say that the cleaning staff were VERY nice, speaking and saying hello every time we saw them. This is a newer hotel and it is run by a staff thst is not trained in customer service and professionalism. As we were leaving More</t>
   </si>
   <si>
+    <t>LeAnn D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r572463043-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -604,6 +667,9 @@
     <t>Comfort, clean, amenities, breakfast, parking, service! A+ 100! Location and bed and gym and laundry room and in room amenities, shower and water pressure, towels and linens. Nothing more could be expected!More</t>
   </si>
   <si>
+    <t>katie1226</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r571905815-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -622,6 +688,9 @@
     <t>First off the cook at this hotel serves a picture perfect breakfast. You can see the pride in his work and I tasted it. Fresh hot coffee in the lobby and its delicious! 29 stars on the food!!!!!  The design of the lobby is great! King bed was like a dreamy cloud that forces you to sleep! Room was spotless!! Bathroom looked like it was a dressing room designed for a movie star with a great mirror and it made me feel like a movie star!! Shower was spotless with the cleanest glass shower dootscI have ever seen and I know clean!!!  No need to stay anywhere else when your in Plano. More</t>
   </si>
   <si>
+    <t>jmumford99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r571348149-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -640,6 +709,9 @@
     <t>We stayed two nights for a family event.  We use La Quinta because they are pet-friendly.  Our pets are gone but we continue to use La Quinta because they are clean, modern and have a great breakfast bar.More</t>
   </si>
   <si>
+    <t>christinecX5734WL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r570261396-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -658,6 +730,9 @@
     <t>Hotel is a nice place for a home away from home feel. Food they offer for breakfast is great with fresh fruit. Room are comfortable with lots of lighting in the bathroom and room. Staff is also friendly.More</t>
   </si>
   <si>
+    <t>drbaehner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r569695158-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -685,6 +760,9 @@
     <t>Perfect vacation,perfect location. Would recommend this Hotel to family and friends. Very clean,wonderful breakfast.Great location right next to the highway. Family likes across the street so very convenient for our family.More</t>
   </si>
   <si>
+    <t>frankgarciapa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r569574328-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -706,6 +784,9 @@
     <t>Hotel was clean, new and in good location, many areas to eat. Easy access to the highway. About 15-20 minutes to different area airports. Good Neightboor hood. Great free breakfast  Hotel has a pool, gym. More</t>
   </si>
   <si>
+    <t>443treys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r569570784-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -721,6 +802,9 @@
     <t>Very nice property, but they do not have bath tubs - only showers. This is the only reason it is not a five! They did, however, take care of us and put us in a handicapped room that was not in use. Breakfast was outstanding - great selection.More</t>
   </si>
   <si>
+    <t>Dale M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r569569961-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -736,6 +820,9 @@
     <t>This is a newer facility and it is well kept.  Although it is a little north of where we wanted to be the price was great and it has easy access to the freeway and the toll road. The staff was friendly and helpful.  The breakfast was very good.  Enjoyed our stay.  More</t>
   </si>
   <si>
+    <t>baileys746</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r569413665-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -760,6 +847,9 @@
     <t>Very nice, clean, new and modern La Quinta in Plano/Frisco area. Excellent price compared to other hotels in the immediate area. Excellent location to Shops at Legacy as well. Definitely would stay again.More</t>
   </si>
   <si>
+    <t>quiringmd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r569219723-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -778,6 +868,9 @@
     <t>Great bargain at the time of booking. Stayed two nights. Quite. Good breakfast. Great proximity and easy access. Fairly new property, only two years old, so still very clean and new. Modern decor. Enjoyed my stay!More</t>
   </si>
   <si>
+    <t>Stefonfoster13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r556196638-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -802,6 +895,9 @@
     <t>My stay went really well from the very beginning. I really enjoyed the location of the hotel, how it was off to its self. I feel the bed could have been a little more comfortable but overall it was a really good stay.More</t>
   </si>
   <si>
+    <t>Tammie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r556235590-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -817,6 +913,9 @@
     <t>Very nice and new looking facility.  Staff was friendly and helpful.  Breakfast was very good, better than most in this chain as they offered hot foods.  Small market was convenient but very pricy.  Housekeeping was a bit sloppy.More</t>
   </si>
   <si>
+    <t>Hicks B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r555845971-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -835,6 +934,9 @@
     <t>places seems new, the stay was very comfortable and the staff was very nice. It is in the middle of new development and a little difficult to navigate at this time with all the construction. We would definitely stay there againMore</t>
   </si>
   <si>
+    <t>Tonya M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r555823380-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -850,6 +952,9 @@
     <t>Great hotel.  Comfortable beds, clean rooms and great breakfast!  We will definitely stay here the next time we are in Frisco.  Very convenient location to the Dr. Pepper Center and Stonebriar Mall.  Friendly check in staff as well.More</t>
   </si>
   <si>
+    <t>Bill K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r554331861-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -874,6 +979,9 @@
     <t>We were in town to visit our daughter who lives near the Shops at Legacy.  We had other family members with us and enjoyed our time here.  Our room was clean, breakfast was good, and the staff was vey helpful. It was also very close to the Legacy area.  I would recommend this hotel to friends.More</t>
   </si>
   <si>
+    <t>Mary C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r550664268-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -901,6 +1009,9 @@
     <t>This hotel exceeded my expectations! It’s new and modern and looks great! The rooms are comfortable and the bed slept great! It has a huge shower which was a nice perk. The breakfast was delicious, too. All in all, it’s great value for what you get. I give it an A+!!More</t>
   </si>
   <si>
+    <t>595alyceaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r548274284-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -925,6 +1036,9 @@
     <t>This new hotel was extremely clean and inviting and very quiet. It has easy access to the Dallas North Tollway, George Bush and Hwy 121. They were several restaurants and stores in ose proximity to the hotel. I would definitely recommend this hotel and will be staying there again.More</t>
   </si>
   <si>
+    <t>ctcabmK6504GP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r548056201-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1057,9 @@
     <t>Rooms were very clean and quiet, the manager often works in the front office and is available. The rooms have neat chargers at the desk and a sleek design all around. Look forward to returning to this location!More</t>
   </si>
   <si>
+    <t>LOJO66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r548157249-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -958,6 +1075,9 @@
     <t>This hotel was immaculately clean. The bed was VERY comfortable, and the location was great. It was only a few miles to great shopping and restaurants to the north and south. Even though it was directly off of DNT, you could easily move through back streets and side roads to get around without having to pay toll costs. Loved it.More</t>
   </si>
   <si>
+    <t>Y8246RWjohnc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r547458787-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -982,6 +1102,9 @@
     <t>Very good, new, quiet and comfortable.  Great location for commuting around the Plano and North Dallas area. The colors are modern but not too much.  Legacy area is near by.  Several restaurants and bars are in the area.  I found the price point for this property very acceptable.More</t>
   </si>
   <si>
+    <t>Richard L Joost... J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r547000914-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1000,6 +1123,9 @@
     <t>Brand new, high tech design vibe and value pricing tempted us to give this property a try. Location is decent for those visiting the northwest Plano/Legacy area (there is no monument sign indicating the entrance so keep s sharp eye) Positives include a high design techie feel in the spacious lobby and rooms, and a friendly desk staff. Negatives add up, though. The absence of carpet in the halls and rooms causes every sound to reverberate and reflect. Noisy. The metal bed frame groaned, creaked and squeaked with every small movement. The stylish lighting was also cold and fluorescent, adding to the starkness. We slept in our first morning (sort of- the noise woke us) so the maid service skipped over us and never returned. A couple of notices to the front desk got the room tidied, but without toilet paper or cleaning of the coffee pot. Two days later the tissues ran out but were not replaced. Ants appeared in the corner and on the bed: the desk folks took note, apologized, volunteered to remove sundry charges as a nice gesture, and efforts to do a good mop out or whatever seem to have been made while we were out (the room and hotel seemed very clean). Unfortunately, the ants reappeared the next day (and the sundry charges showed up on our bill at checkout). All in all, we would not recommend this hotel. More</t>
   </si>
   <si>
+    <t>sue58wise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r546755140-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1018,6 +1144,9 @@
     <t>This is a newer hotel in a great location.  Parking is very easy, the hotel is spotless.  There are lots of places to sit and relax in the lobby area.  The breakfast selection was the best I've experienced at a hotel.More</t>
   </si>
   <si>
+    <t>donnyf351</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r545010529-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1045,6 +1174,9 @@
     <t>Great holel off the beaten path and quite. Its new and the rooms are so well kept and the staff goes out of their way to help. The breakfast is better then a lot of restarents I have eaten in.  I have stayed there 4 times in the past three years and will never stay any where else.  The rooms are so quite that you cant here your naibors or anyone else come and go. Looking  forward to me next trip in March. They even have a nice little bar thats open in the evening for a cold beer or drinks.More</t>
   </si>
   <si>
+    <t>Gayla S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r543744255-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1072,6 +1204,9 @@
     <t>LaQunita in my home town not too desirable but this hotel is opposite. Everything was perfect from staff, room to breakfast. Definitely a fan. Wish all LaQintas stood up to Frisco/Plano standards. The price was great and conveniently located to stores and restaurants.More</t>
   </si>
   <si>
+    <t>davidvK259JH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r543099977-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1090,6 +1225,9 @@
     <t>I've stayed several times at this LaQuinta.  The property seems new.  The staff are courteous and efficient.  I haven't had the opportunity to take their shuttle, but I suspect it would get me to and from local destinations.  The gas firepit outside looks quite inviting.More</t>
   </si>
   <si>
+    <t>560chandrac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r537312646-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1117,6 +1255,9 @@
     <t>I would recommend this hotel only as a last resort.  Only because the people that I support in my company are C-level and I do not think this is a "best" fit.  I would however, recommend to others,   visitor, vendors that are in our organization.  I would say pack your patience.  Do not get a room next to the stairs or the ice machine.  And do not expect room service, otherwise it's okay.  One night is a long enough of a stay.  The room was clean, you can tell it's still a new hotel.  This is a step up from your back in the day LaQuinta.  The staff was friendly, aware and courteous.More</t>
   </si>
   <si>
+    <t>Erica Davis R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r537030669-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1141,6 +1282,9 @@
     <t>I had to book a last minute trip as I often do for work and specifically needed to be in Plano.  Rates were exceeding $300 for most of the local hotels.  I'd stayed at NYLO Plano the week prior and although I'd loved the Happy Hour and Breakfast, I wasn't a huge fan of the room.  I booked the La Quinta because they had reasonable rates and availability...turned out to be a gem.  The staff was wonderful!  The room was spacious, clean, modern AND comfy!  And they had a bar where I could have a glass of wine after a long day of meetings!  The Sales Manager Ms. Willis came out and personally greeted me during check-in.  You can see from my other reviews the level of accommodations and service I prefer especially with traveling as much as I do for work.  This one is apparently a new concept for La Quinta and it works.  I don't think I've ever stayed in a La Quinta previous to this stay, but I will again for sure!  One thing to note is that they do not have a restaurant or food offerings in the evening, but breakfast is included in the morning.More</t>
   </si>
   <si>
+    <t>132nedar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r535273002-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1165,6 +1309,9 @@
     <t>Nice new hotel.  Well designed and modern.  The desk staff was friendly and efficient, far more than any other hotel I can remember staying at.  The complimentary breakfast had a great selection and is a great start to your day.More</t>
   </si>
   <si>
+    <t>2bgizmo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r531880047-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1183,6 +1330,9 @@
     <t>Felt safe, not many spots to eat nearby -must have a car. This AC unit goes off/on - not steady. Pillows and mattress are a bit firm - ask for soft pillows if need be. Typical hotel breakfast was good, did its job! No wif password- plenty of outlets to charge your devices. Awesome customer service! Elevator a bit warm too. Hotel internal/external lighting A+, felt safe.More</t>
   </si>
   <si>
+    <t>cheryld899</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r529345142-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1204,6 +1354,9 @@
     <t>The hotel is new, modern, clean and fabulously priced.  Every staff member I interacted with was professional and so helpful!  The free breakfast in the morning was constantly restocked and very impressive.  I will definitely stay there again.More</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r527785234-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1228,6 +1381,9 @@
     <t>The hotel is very attractive. Our room was comfortable. We were visiting people close by so the location was perfect. The free breakfast was better then most with a nice selection including fresh fruit. More</t>
   </si>
   <si>
+    <t>Phyllis D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r527736649-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1246,6 +1402,9 @@
     <t>Nice place, a bit out of the way compared to the places we wanted to go.  The hotel was very clean, staff was friendly and helpful.  The breakfast was fine, and the facilities very roomy and attractive.  Loved the sitting area in the lobby.More</t>
   </si>
   <si>
+    <t>stayrevcoms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r527094405-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1264,6 +1423,9 @@
     <t>Jesus and Alexa have been extremely helpful and accommodating when helping to set up, and make adjustments to, my several reservations.  They are the best!Ignacio, "Nacho",  has been very helpful and cheerful each morning in the breakfast area.  He is very proactive at mixing the food, straightening up everything to keep the food presentation excellent; and keeping the green sauce, and other freshly made sauces, perfect for adding to the eggs.  He also keeps the area clean, vacumming and mopping, daily.  Lastly,  the coffee pots never run out, as I have experienced in other hotels.The cleaning staff at this hotel are also excellent.  The different rooms I have stayed in have been cleaned extremely well.  They also occasionally, decoratively fold the towels, and the face clothes  placing soap on them.All in all,  this newer La Quinta is the best La Quinta I have stay in; and I have stayed in a few in different U.S. States.  It is also a better hotel than many of the higher brand hotels I have stayed in, without naming names.I highly recommend this hotel to folks staying in the north Dallas ,TX areas.More</t>
   </si>
   <si>
+    <t>heathermD6523CB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r525908875-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1288,6 +1450,9 @@
     <t>I was travelling for business and our group of five stayed at this hotel.  It is a newer hotel with a great design.  The staff were amazing and super friendly.  The room and bathroom were clean and had plenty of room.  The free breakfast was good.  My only issue was the firmness of the new pillows interfered with my sleep but I am sure they will soften over time.More</t>
   </si>
   <si>
+    <t>ashleyj201788</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r524898412-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1306,6 +1471,9 @@
     <t>Great trip..... I really enjoyed myself and the staff was great. The room was clean and it was in a great area. I would definitely recommend this hotel to my friends and I would stay there again if I were in town. More</t>
   </si>
   <si>
+    <t>johnpZ3827JV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r519741749-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1333,6 +1501,9 @@
     <t>Loved this hotel. I'd come back. Breakfast is great. You need a car to have Lunch and Dinner though - There is no onsite Restaurant. The pool and Jacuzzi are fun and there are chairs, tables and (most important) Umbrella's to stay in the Shade.More</t>
   </si>
   <si>
+    <t>Kim M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r519406561-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1348,6 +1519,9 @@
     <t>Nice hotel: new, relatively clean, nice staff. I also liked the space around the hotel -- big green field which allowed a sense of calm and relaxation. Near enough to food centers and shopping if one wants to drive, but a great parking place for work for a few days.If I'm going to be picky, and I am, I would say 4 things:1) Serve great coffee. Farmers Bros doesn't cut it. Starbucks brought high-quality coffee to the masses and that level is the expectation. Serve something great! Stumptown for instance.2) Stop using styrofoam dishes: we know how bad styrofoam is for the environment and I'm always shocked by corporations who continue to choose to use it. There are many eco-friendly options now!3) Wine bar is nice. Serve light bites too! A sip of nice wine and an app at the end of the day can go a long way, especially since there are no amenities within walking distance.4) I spilled some water on the floor one morning and cleaned it up. When I did, it was apparent that the floor is actually quite dirty. Needs some deep cleaning!More</t>
   </si>
   <si>
+    <t>LoneStarReader</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r516148902-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1372,6 +1546,9 @@
     <t>Family members have stayed at this location for business so we stayed here for an overnight visit while visiting family in the area. The staff was great.   The hotel was bright and fresh and seemed brand new.  Our room was clean and comfortable.  The floors do not have carpet which I prefer and were dust free.  The bathroom included a bright LED mirror which was great and provided a lot of light. The breakfast was more than I expected with hot items as well as the usual cereal. We were very pleased with our stay there and will stay there again in the future.  This was a very convenient location. There are lots of shopping and restaurants in the surrounding area.More</t>
   </si>
   <si>
+    <t>hansonTK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r515864811-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1387,6 +1564,9 @@
     <t>We only stayed here while passing through to San Antonio however we would have loved to have been able to stay longer and take advantage of what it had to offer. The hotel was very clean and the deco was really fun (my teenage daughter loved it). They had a nice little pool and hot tub as well as a large fire pit. Breakfast was lovely and there was a large variety of choices. Great hotel! More</t>
   </si>
   <si>
+    <t>Nicole B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r515864170-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1402,6 +1582,9 @@
     <t>Hotel stay was great! The staff were very helpful, the breakfast was great, the room decor is beautiful, the rooms were very spacious and clean. I couldn't find one thing to complain about. Enjoyed my stay!More</t>
   </si>
   <si>
+    <t>Rebecca K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r503281980-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1429,6 +1612,9 @@
     <t>I always book at La Quinta because it is pet friendly. I have a small service dog, and La Quinta has always been my top choice for hotels simply because it is easier to stay at a hotel that allows animals. After booking this hotel, I noticed that this location was not listed as pet friendly. I called the front desk to let them know that I saw the "no pets" and wanted to confirm with them that I had a service animal with me (since I didn't put it in my booking), and they informed me that they don't allow service animals or animals of any kind. I repeated that it wasn't a pet, but was instead a service animal. The woman at the front desk reiterated that she knew what I was talking about, but still wouldn't allow it. I asked her if she realized that this was not in compliance with ADA, and she told me I was wrong. Guess I need to find a new hotel chain for my travels.More</t>
   </si>
   <si>
+    <t>Amy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r497571415-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1456,6 +1642,9 @@
     <t>It's been a long time since I've stayed at a La Quinta, but this may change after staying here. It was an excellent stay. The front desk clerk was friendly and helpful. Our room was clean and comfortable. When we came back after a day out, our room looked even cleaner! I have never had housekeeping be that thorough on multiple days. My only complaint is that the bed was too hard for me, but I'm picky and like a soft mattress. That being said, I still had good nights sleep while there.More</t>
   </si>
   <si>
+    <t>Davide R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r497513613-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1471,6 +1660,9 @@
     <t>Good for business travel, quiet place with large rooms. Gym, swimming pool, breakfast included and shuttle service free in 5 miles radius anytime. Perhaps a proper laundry service would be really appreciated by those like me that don't have the time for ironing.. but anyway washer and drier were available, plus iron and table in the room.For the price paid, it's more than ok.More</t>
   </si>
   <si>
+    <t>Ladibuggs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r497249340-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1489,6 +1681,9 @@
     <t>I would give this LQ a ZERO! We have always booked at LQ because they have always been pet friendly. We made reservations at this hotel without ever thinking or knowing they were now pet friendly! They need to update all booking channels websites because even on this site it shows they are pet friendly! LQ Corp office could at least put a pop up alert stating that as of 2017 not ALL LQ ARE PET FRIENDLY TO PLEASE READ HOTEL POLICIES! Hilton does! Very inconvenient and now I had to pay more for a room at another hotel! More</t>
   </si>
   <si>
+    <t>Jamie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r492645441-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1513,6 +1708,9 @@
     <t>The La Quinta is less than a year old and is very nice.  All staff were friendly and most helpful.  Less than a 5 minute stay from my business meeting.  The shuttle was most helpful.  Great place to stay!More</t>
   </si>
   <si>
+    <t>1EyeWally</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r492006966-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1540,6 +1738,9 @@
     <t>We arrived after a long roadtrip with our dog. We had a reservation and to our surprise was told that they were not pet friendly. That they had changed their policy for this location. They do accept service dogs...so with that being said we got lucky! The hotel was new, nice, and clean. We stayed in a King room which was very comfortable. We did have a slight mishap with the first room we checked into. There was a stain on the mattress which looked like a urine stain. The front desk girl was very nice and gave us another room that was perfect.More</t>
   </si>
   <si>
+    <t>Kathryn R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r492096999-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1555,6 +1756,9 @@
     <t>Our stay at La Quinta Legacy was great. It was the nicest  and cleanest hotel we have stayed at  ever. The staff was very friendly and helpful. The breakfast was excellent. Loved the room. It was beautiful and relaxing.More</t>
   </si>
   <si>
+    <t>Juanita E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r491659194-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1579,6 +1783,9 @@
     <t>Nice Hotel new. Not in area with restaurants. I know most people don't smoke, but for those who do need a covered area when raining. And I don't mind being in back of Hotel. The breakfast was good. Staff great. Rooms great clean and new. I would recommend to stay here. A little out of way .More</t>
   </si>
   <si>
+    <t>JHolbert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r490641880-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1600,6 +1807,9 @@
     <t>New, Clean and the staff is friendly and great.  Breakfast was fantastic.  Good location in North Plano; close to Frisco, The Colony and Lewisville.  Great shopping areas close:  Shops @Legacy, Legacy West (new), Stonebriar Mall and IKEA.More</t>
   </si>
   <si>
+    <t>seebeers1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r490341046-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1615,6 +1825,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Shay B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r483232591-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1639,6 +1852,9 @@
     <t>Although I don't usually stay at La Quinta's or similar hotels for business trips, this was a newly constructed property and I decided to try it out. It was a clean and unique hotel that honestly surprised me on how nice it looked. Also breakfast was pretty good, I'll definitely book again!More</t>
   </si>
   <si>
+    <t>ladonnaa460</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485518921-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1660,6 +1876,9 @@
     <t>This is by far one of the best La Quinta hotels I have stayed in.  Very clean with modern décor, appears to be newly built.  Staff were accommodating, friendly and efficient.  Did not eat while there, but breakfast served each morning.  Location away from the downtown Dallas area and fairly easy to find.  Plenty of restaurants and activities nearby.  Would definitely stay there again...and plan to.More</t>
   </si>
   <si>
+    <t>H8521ZWlorim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r481631793-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1687,6 +1906,9 @@
     <t>This La Quinta is fantastic! Very new and modern. Rooms and bathroom impeccably clean and spacious. All La Qunitas should be updated to resemble this hotel. Better than many 4-star hotels I have stayed in. Friendly staff. More</t>
   </si>
   <si>
+    <t>Tami G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r481467640-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1711,6 +1933,9 @@
     <t>Don't get me wrong, the hotel is beautiful and nicely decorated. I did not sleep well at all because the bed wasn't comfortable at all. It was lumpy and squeaky. The pillows were VERY hard, and the bed sheets were rough and cheap. I was scratching my skin on and off thru out the night, and woke up with a crook in my neck from tossing and turning with hard pillows. The sheets were not smooth like I'm used to in most nice hotels that I have stayed in. The second night, I decided to sleep with the very first top sheet that they have on the bed. I wrapped my body around that, and slept like a baby because that one sheet was very smooth and silky.Beautiful hotel, with spacious bathroom and walk in shower, with refrigerator and microwave, and the TV was very large. However, due to the bed, bed sheets, and pillows, I will not return.More</t>
   </si>
   <si>
+    <t>Lynda H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519709-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1729,6 +1954,9 @@
     <t>In my many years of travelling for dog shows, I ALWAYS stay at LaQuinta due to their friendly pet policy.  To my disappointment, this LaQuinta does not allow pets.  It's a shame, as it's a pretty nice hotel.  I hope this isn't a trend with LaQuinta.More</t>
   </si>
   <si>
+    <t>Concept-R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r473963234-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1747,6 +1975,9 @@
     <t>I was here for a 1,5 week business trip and my experiences are consistently perfect. The rooms are clean and well equiped. Swiming pool, jacuzzi tub and fittnes room are state of the art. The staff is courteous and helps out with whatever you need. Air conditioning is working fine in the whole building. Breakfast is comprehensive and allways freshly prepared every day. Absolutely nothing to complain.More</t>
   </si>
   <si>
+    <t>CPatriarca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r473470079-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1765,6 +1996,9 @@
     <t>We have previously stayed at this hotel twice in the past with our small dog and it was an excellent value. Breakfast was excellent for La Quinta. Service likewise was excellent. However, when we tried to check in today, we were informed that pets were no longer allowed. This was the first ever La Quinta we have ever encountered which did no allow pets. Be advised to leave you dog at home if you book here. The front desk was very helpful with locating alternate accommodations for us.More</t>
   </si>
   <si>
+    <t>DoUBelieve</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r472924718-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1783,6 +2017,9 @@
     <t>Great value at this hotel.  Included breakfast &amp; shuttle service (within 5 miles) really enhanced the value for our stay.  the pullout was soft but not too uncomfortable.  Clean, friendly service, somewhat convenient (especially with the weekday (only) shuttle) and pool/hot tub were nice (although on the shady side of the hotel).More</t>
   </si>
   <si>
+    <t>kewantib</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r471746554-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1804,6 +2041,9 @@
     <t>The Hotel was beautiful, room was very spacious, and the breakfast was great. My family and I stayed for three nights, room service kept us stocked with towels and made sure the room was clean. Very quiet and relaxing! The guys at the front desk were always greeting us with a smile, very friendly staff. It was an honor to have met Mrs. Thressia Wilis she was so nice and genuine. Yes, I would stay at the La Quinta - Legacy again (I didn't want to leave). Oh and everything you need is close by shopping, eating, nail salon etc....More</t>
   </si>
   <si>
+    <t>60_B-Ram</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r469377572-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1825,6 +2065,9 @@
     <t>Stayed at this hotel while in the area for my son's football camp at The Star in Frisco.  What a great find!  The hotel is new, and it's certainly the nicest LaQuinta I've stayed in to date.  The lobby is very modern and spacious.  Our room was a good size and very nice and comfortable.  There is a free breakfast which has a great variety to choose from.  It's also in a good area with lots to do and places to eat.The only issue -- and it's a very minor quibble -- is that the walls seem to be a bit thin and you can hear noise from other rooms and the hallway.We will stay here again.  In fact, I've already booked it twice for trips to the area within the next month.More</t>
   </si>
   <si>
+    <t>Ann S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r468325922-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1843,6 +2086,9 @@
     <t>We love this hotel! It's the second time we've stayed there in 5 months. We had such a great experience the 1st time, we knew we had to return this time around. Rooms are nice and modern, and breakfast is really good. We have absolutely no complaints with this hotel. We showed up a day early and Jesus was very accommodating allowing us to stay in our room and not making us move. Thank you, thank you for another wonderful stay. We love Dallas, so we will be back!More</t>
   </si>
   <si>
+    <t>Wakoo13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r465891958-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1867,6 +2113,9 @@
     <t>The location, amenities and service is the best service I have received during all my Professional Career on a Business Hotel. Please keep it up the good work and all the excellent service. In special I would like to say thanks to Ingacio the cheff who made so delicious mexican souce and food! I hope to come back to this hotel.More</t>
   </si>
   <si>
+    <t>Nicholas F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r464376844-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1891,6 +2140,9 @@
     <t>They have an automatic machine which makes coffee 24 hours. That may not sound like a lot, but I Wake Up Normally at 5 eastern time, and that's for central time. Even at that early hour I could count on going downstairs to have my coffee and start my day.The lobby is incredible period very spacious plenty of chargers at a Long Bar. And in the one area there's a little Nook where you can sit and get work done and there's a large TV there.There was one small error, I didn't get shampoo and conditioner one day. But I'll still give them five stars because Carine was so kind and helpful at the front desk from check into departure.More</t>
   </si>
   <si>
+    <t>800retire11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r464035815-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1909,6 +2161,9 @@
     <t>This hotel is 6 months old and very nice.  Décor is modern style and feels upscale.  We had junior suite and would highly recommend that selection.  Large room with a sofa and chairs and 42 inch TV.  Bed was very comfortable.  Heat and air is controlled by a thermostat which greatly increases comfort.  There is a beer and wine bar which is nice.  A special shoutout to Jesus who served me a glass of wine.  He checked 3 or 4 wine glasses to make sure they were clean.  He apologized saying he would take a glass to the kitchen and rewash it.  The breakfast selections are the largest we have seen at a La Quinta, including fresh fruit and yogurt. The staff was very friendly and helpful.  Although there isn't much within walking distance there are several restaurants within a couple of minutes driving distance.  I think La Quinta has hit a home run with this style hotel.  I wish they were all this nice.More</t>
   </si>
   <si>
+    <t>Travlinmam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r463772381-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1933,6 +2188,9 @@
     <t>This new property is located in a very commercial business park area with no stores or restaurants in walking distance, however it is a short drive to multiple choices for this.The exterior is rather stark in appearance and landscaping is yet to be complete, but it is a colorful, bright and fresh surprise inside.  Reception was friendly and helpful.  Several members of family were there for a funeral. They made some last minute changes to our room situation quickly. The breakfast offerings were beyond expectation, much more than average including a new coffee vending machine that was 5 star.!Comfortable beds and good, large shower was much appreciated. only negative was a personal one- I like soft pillows and these were firm. Stay here if you can.We especially appreciated the offers of condolence from the reception staff. ( Claire)More</t>
   </si>
   <si>
+    <t>carlosalberc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519456-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1951,6 +2209,9 @@
     <t>I highly recommend this hotel for your stay. The hotel is close to the main hi-way, restaurants, grocery store, and close to my clients. The food for breakfast is presented well and served well and plenty.More</t>
   </si>
   <si>
+    <t>Y7561RPcristinas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r461760792-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1975,6 +2236,9 @@
     <t>The customer service was very, very good. The room was spotless, clean, no need of repairs,no cracks in wall, no stains on ceiling, well prepped with soap, towels, Pantene shampoo. The outside was very well kept, and the breakfast was excellent! There was definitely more of a selection than other hotels. No complaints on the food! It was a very homey kind of hotel, highly reccommend!More</t>
   </si>
   <si>
+    <t>88dots</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r461314309-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1999,6 +2263,9 @@
     <t>The hotel is very new and clean, it has everything you needed for a comfortable stay without breaking the bank. Beds are very comfortable, wifi is fast, breakfast is ok as what you would expect from this hotel chain.  On the minus side, the shower is somewhat weak and you can hear the footsteps from the room above you.It is very close to major highway and the Plano Legacy mall is about 1.6 mile away, however, I don't see any restaurants in walking distance.  So you do need a car by staying here.Overall, it is a good place to stay and I will certainly come back again.More</t>
   </si>
   <si>
+    <t>kaq3015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519890-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2017,6 +2284,9 @@
     <t>It is new hotel with great service. No restaurant no vending machines on each floor. Pool looked bad. Room was good. Bad views. Breakfast was excellent which should run longer on weekends. Window shade bangs when you put it down. Other than that I liked the room. elevator stops with a jolt to it. Pretty bad for new elevator.More</t>
   </si>
   <si>
+    <t>sammyks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r459980967-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2044,6 +2314,9 @@
     <t>Great location and value.  The new LQ design is beautiful.  Rooms were roomy and very comfortable- especially liked shower only (no tub).  Yummy full breakfast and always love that LQ is pet friendly. Hope to see more LQs like this one around the country.More</t>
   </si>
   <si>
+    <t>Sally D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r459829845-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2062,6 +2335,9 @@
     <t>Went for a weekend trip to a football game.  We really enjoyed the layout of the hotel, comfortable rooms.  The lobby was very welcoming and seemed to be  a great gathering spot.  Highly recommend!  Location was perfect!More</t>
   </si>
   <si>
+    <t>lvtravln</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r458127617-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2083,6 +2359,9 @@
     <t>We enjoyed our recent stay at the La Quinta - Legacy.  The staff was very helpful and friendly.  There was plenty of green space for my dog.  The room was nice and clean.  Pretty good selection for breakfast.  The hotel is close to a major highway and very close to pretty much anything you may need.  This was my first stay at a La Quinta and I must say I was very impressed.  I would highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>KimberlyJmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r457338717-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2125,6 +2404,9 @@
     <t>Beautiful and new with wonderful accommodations and amenities.  Very professional and helpful staff.  The breakfast was more than just pastries &amp; cereal.  It included fresh fruit, scrambled eggs, and more.More</t>
   </si>
   <si>
+    <t>timothyk494</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519698-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2143,6 +2425,9 @@
     <t>Bright, new, clean and contemporary hotel with an exceptional breakfast and incredibly helpful and friendly staff.  Would stay here again and again.  Just provide me with quarters AWAY from all of the dogs.  if you are in need of anything . . . ask for Stephanie,  she displayed an understanding and outpouring of hospitality and customer service beyond expectation.  She should be a corporate trainer for LQ.More</t>
   </si>
   <si>
+    <t>jessicaannem2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519269-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2161,6 +2446,9 @@
     <t>Comfortable, reliable, convenient + a very friendly staff!  I would definitely stay at a La Quinta again for business or leisure travel.  The loyalty program, La Quinta Returns, is simple and rewarding!More</t>
   </si>
   <si>
+    <t>gvalentini17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519271-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2182,6 +2470,9 @@
     <t>I booked a night at this LQ solely because of the location. I was in town for business and looking for something convenient and easy - this place exceeded my expectations! It was super clean, on-trend and well designed. The staff was very helpful. Overall, a wonderful experience.More</t>
   </si>
   <si>
+    <t>565codym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519877-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2200,6 +2491,9 @@
     <t>This hotel is so clean and new!! I consider myself a hotel snob and normally do not stay in anything less than 4 stars, but this hotel is so modern/new/clean that I would stay here for every trip i make to Plano! The breakfast has a huge selection of hot breakfast and cold breakfast! If you want healthy, they have it! If you want something hearty, they have it! They also have a bar and little market to buy some snack foods! Plus the gyms is really nice, my husband loved coming down in the mornings to get a nice run on the treadmill. I would highly recommend this hotel to everyone!More</t>
   </si>
   <si>
+    <t>J8960DSmariac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519055-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2251,6 +2545,9 @@
     <t>We had a lovely visit here, and extended our stay twice as we were so comfortable. The beds are super comfortable and the place was very quiet and peaceful. The free breakfast was of a very high quality and the gym and laundry were very much appreciated. Best of all was the very helpful and friendly staff. The management of this hotel should be proud!!More</t>
   </si>
   <si>
+    <t>lucretiafranklin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r443617443-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2293,6 +2590,9 @@
     <t>Very happy with my stay at this hotel. Staff was very helpful.  Breakfast was average LaQuinta fare.  Modern exterior and interior decor. It is so new that Uber had to hunt for it a little.  It is extremely convenient to Dallas North Tollway. The Legacy area has shops and restaurants.More</t>
   </si>
   <si>
+    <t>agonzalez6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r441957109-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2317,6 +2617,9 @@
     <t>We had the best and most friendly service at our stay! Staff had excellent customer service, room was so comfortable and clean! Definitely will be staying here again when we are back in the Plano area! More</t>
   </si>
   <si>
+    <t>B8061NWdavidh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519186-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -2333,6 +2636,9 @@
   </si>
   <si>
     <t>Great location and value.  New construction with excellent ammenities!  The hotel staff were very friendly and helpful.  Throughout the stay everyone consistently greets guests to make sure you feel welcome.More</t>
+  </si>
+  <si>
+    <t>Stewart K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10223193-r485519000-La_Quinta_Inn_Suites_Plano_Legacy_Frisco-Plano_Texas.html</t>
@@ -2858,43 +3164,47 @@
       <c r="A2" t="n">
         <v>64898</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>166497</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2916,56 +3226,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64898</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>166498</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2983,56 +3297,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64898</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>166499</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -3054,56 +3372,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64898</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>10362</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3121,56 +3443,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64898</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>166500</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3182,56 +3508,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64898</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>166501</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3253,56 +3583,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64898</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>166502</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3324,56 +3658,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64898</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>166503</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3395,56 +3733,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64898</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>166504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3462,56 +3804,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64898</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>68180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3533,56 +3879,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64898</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>166505</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3604,56 +3954,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X12" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64898</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>166506</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3675,56 +4029,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X13" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64898</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>166507</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3736,56 +4094,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X14" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64898</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>166508</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3807,56 +4169,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X15" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64898</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>109341</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3868,56 +4234,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64898</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>166509</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -3939,56 +4309,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="X17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64898</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>166510</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -4010,56 +4384,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="X18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64898</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>166511</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4081,56 +4459,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="X19" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64898</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>166512</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4152,56 +4534,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="X20" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64898</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>166513</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -4223,56 +4609,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="X21" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64898</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>166514</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4294,56 +4684,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="X22" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64898</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>166515</v>
+      </c>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4365,56 +4759,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="X23" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Y23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64898</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>166516</v>
+      </c>
+      <c r="C24" t="s">
+        <v>222</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="J24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4426,56 +4824,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="X24" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64898</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>166517</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O25" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4487,56 +4889,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="X25" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Y25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64898</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>166518</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4548,56 +4954,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="X26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="Y26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64898</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>166519</v>
+      </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4619,56 +5029,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="Y27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64898</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>166520</v>
+      </c>
+      <c r="C28" t="s">
+        <v>254</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4680,56 +5094,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="X28" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="Y28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64898</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>8810</v>
+      </c>
+      <c r="C29" t="s">
+        <v>260</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4741,56 +5159,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="X29" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="Y29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64898</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>166521</v>
+      </c>
+      <c r="C30" t="s">
+        <v>266</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="J30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="K30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4812,56 +5234,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="X30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="Y30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64898</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>166522</v>
+      </c>
+      <c r="C31" t="s">
+        <v>275</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="J31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="K31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4883,56 +5309,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="X31" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="Y31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64898</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>166523</v>
+      </c>
+      <c r="C32" t="s">
+        <v>282</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4954,56 +5384,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="X32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="Y32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64898</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>51600</v>
+      </c>
+      <c r="C33" t="s">
+        <v>291</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5025,56 +5459,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="X33" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="Y33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64898</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>166524</v>
+      </c>
+      <c r="C34" t="s">
+        <v>297</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="J34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -5092,56 +5530,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="X34" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="Y34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64898</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>3598</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="J35" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5163,56 +5605,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="X35" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="Y35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64898</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>29951</v>
+      </c>
+      <c r="C36" t="s">
+        <v>310</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -5234,56 +5680,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="X36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="Y36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64898</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>7527</v>
+      </c>
+      <c r="C37" t="s">
+        <v>319</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="J37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="K37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="L37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5305,56 +5755,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="X37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="Y37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64898</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>166525</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="J38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5376,56 +5830,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64898</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>166526</v>
+      </c>
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="J39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5447,56 +5905,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X39" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64898</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>166527</v>
+      </c>
+      <c r="C40" t="s">
+        <v>345</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="J40" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5518,56 +5980,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X40" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64898</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>166528</v>
+      </c>
+      <c r="C41" t="s">
+        <v>351</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="J41" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="K41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5587,56 +6053,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="X41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="Y41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64898</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>166529</v>
+      </c>
+      <c r="C42" t="s">
+        <v>360</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="J42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="K42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -5658,56 +6128,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="X42" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="Y42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64898</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>166530</v>
+      </c>
+      <c r="C43" t="s">
+        <v>367</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="J43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="K43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5729,56 +6203,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="X43" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="Y43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64898</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>166531</v>
+      </c>
+      <c r="C44" t="s">
+        <v>374</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="J44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="K44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5794,56 +6272,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="X44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="Y44" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64898</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>72755</v>
+      </c>
+      <c r="C45" t="s">
+        <v>384</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="J45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="K45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="O45" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5865,56 +6347,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="X45" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="Y45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64898</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>166532</v>
+      </c>
+      <c r="C46" t="s">
+        <v>394</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="J46" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="K46" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5936,56 +6422,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="X46" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="Y46" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64898</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>166533</v>
+      </c>
+      <c r="C47" t="s">
+        <v>401</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="J47" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="K47" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="L47" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="O47" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -6007,56 +6497,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="X47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="Y47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64898</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>166534</v>
+      </c>
+      <c r="C48" t="s">
+        <v>411</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="J48" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -6078,56 +6572,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="X48" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="Y48" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64898</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>166535</v>
+      </c>
+      <c r="C49" t="s">
+        <v>420</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="J49" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="K49" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="L49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -6149,56 +6647,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="X49" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="Y49" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64898</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>166536</v>
+      </c>
+      <c r="C50" t="s">
+        <v>429</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="J50" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="K50" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="L50" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6220,56 +6722,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="X50" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="Y50" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64898</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>166537</v>
+      </c>
+      <c r="C51" t="s">
+        <v>436</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="J51" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="K51" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="L51" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6291,56 +6797,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="X51" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="Y51" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64898</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>508</v>
+      </c>
+      <c r="C52" t="s">
+        <v>444</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="J52" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="K52" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="L52" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="O52" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -6362,56 +6872,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="X52" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="Y52" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64898</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>85900</v>
+      </c>
+      <c r="C53" t="s">
+        <v>453</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="J53" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="K53" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="L53" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="O53" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6433,56 +6947,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="X53" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="Y53" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64898</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>166538</v>
+      </c>
+      <c r="C54" t="s">
+        <v>460</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="J54" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="K54" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="L54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6494,56 +7012,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="X54" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="Y54" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64898</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>166539</v>
+      </c>
+      <c r="C55" t="s">
+        <v>467</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="J55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="K55" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="L55" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6565,56 +7087,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="X55" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="Y55" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>64898</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>166540</v>
+      </c>
+      <c r="C56" t="s">
+        <v>476</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="J56" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="K56" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="L56" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="O56" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6636,56 +7162,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="X56" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="Y56" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64898</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>166541</v>
+      </c>
+      <c r="C57" t="s">
+        <v>483</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="J57" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="K57" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="L57" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6707,56 +7237,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="X57" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="Y57" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64898</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>4074</v>
+      </c>
+      <c r="C58" t="s">
+        <v>493</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="J58" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="K58" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="L58" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6772,56 +7306,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="X58" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="Y58" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64898</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>166542</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="J59" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="K59" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="L59" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6843,56 +7381,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="X59" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="Y59" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64898</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>166543</v>
+      </c>
+      <c r="C60" t="s">
+        <v>508</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="J60" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="K60" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="L60" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6904,56 +7446,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="X60" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="Y60" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64898</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>14810</v>
+      </c>
+      <c r="C61" t="s">
+        <v>514</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="J61" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="K61" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="L61" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="O61" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6975,56 +7521,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="X61" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="Y61" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>64898</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>3125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>520</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="J62" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="K62" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="L62" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -7038,56 +7588,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="X62" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="Y62" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>64898</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>10648</v>
+      </c>
+      <c r="C63" t="s">
+        <v>530</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="J63" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="K63" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="L63" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -7103,56 +7657,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="X63" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="Y63" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>64898</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>166544</v>
+      </c>
+      <c r="C64" t="s">
+        <v>540</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="J64" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="K64" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="L64" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7164,56 +7722,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="X64" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="Y64" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64898</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>166545</v>
+      </c>
+      <c r="C65" t="s">
+        <v>546</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="J65" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="K65" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="L65" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7225,56 +7787,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="X65" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="Y65" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64898</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>33638</v>
+      </c>
+      <c r="C66" t="s">
+        <v>553</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="J66" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="K66" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="L66" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="O66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7296,56 +7862,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="X66" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
       <c r="Y66" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>64898</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>166546</v>
+      </c>
+      <c r="C67" t="s">
+        <v>562</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="J67" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="K67" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="L67" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="O67" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7363,56 +7933,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="X67" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="Y67" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>64898</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>115860</v>
+      </c>
+      <c r="C68" t="s">
+        <v>572</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="J68" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="K68" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="L68" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="O68" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7434,56 +8008,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="X68" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="Y68" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>64898</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>117506</v>
+      </c>
+      <c r="C69" t="s">
+        <v>578</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>511</v>
+        <v>579</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="J69" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="K69" t="s">
-        <v>514</v>
+        <v>582</v>
       </c>
       <c r="L69" t="s">
-        <v>515</v>
+        <v>583</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7505,56 +8083,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="X69" t="s">
-        <v>517</v>
+        <v>585</v>
       </c>
       <c r="Y69" t="s">
-        <v>518</v>
+        <v>586</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>64898</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>166547</v>
+      </c>
+      <c r="C70" t="s">
+        <v>587</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="J70" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
       <c r="K70" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="L70" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="O70" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="n">
@@ -7570,54 +8152,58 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="X70" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="Y70" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>64898</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>166548</v>
+      </c>
+      <c r="C71" t="s">
+        <v>595</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="J71" t="s">
-        <v>528</v>
+        <v>598</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="O71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7639,56 +8225,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="X71" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="Y71" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>64898</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>107766</v>
+      </c>
+      <c r="C72" t="s">
+        <v>601</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="J72" t="s">
-        <v>533</v>
+        <v>604</v>
       </c>
       <c r="K72" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="L72" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="O72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7700,56 +8290,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="X72" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="Y72" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64898</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>166549</v>
+      </c>
+      <c r="C73" t="s">
+        <v>610</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>539</v>
+        <v>611</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="J73" t="s">
-        <v>533</v>
+        <v>604</v>
       </c>
       <c r="K73" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="L73" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7771,56 +8365,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="X73" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="Y73" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>64898</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>166550</v>
+      </c>
+      <c r="C74" t="s">
+        <v>618</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>546</v>
+        <v>619</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="J74" t="s">
-        <v>548</v>
+        <v>621</v>
       </c>
       <c r="K74" t="s">
-        <v>549</v>
+        <v>622</v>
       </c>
       <c r="L74" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7832,56 +8430,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>552</v>
+        <v>625</v>
       </c>
       <c r="X74" t="s">
-        <v>553</v>
+        <v>626</v>
       </c>
       <c r="Y74" t="s">
-        <v>554</v>
+        <v>627</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>64898</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>116411</v>
+      </c>
+      <c r="C75" t="s">
+        <v>628</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>555</v>
+        <v>629</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="J75" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
       <c r="K75" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="L75" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O75" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7899,56 +8501,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>560</v>
+        <v>634</v>
       </c>
       <c r="X75" t="s">
-        <v>561</v>
+        <v>635</v>
       </c>
       <c r="Y75" t="s">
-        <v>562</v>
+        <v>636</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>64898</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>48966</v>
+      </c>
+      <c r="C76" t="s">
+        <v>637</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="J76" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="K76" t="s">
-        <v>566</v>
+        <v>641</v>
       </c>
       <c r="L76" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7970,56 +8576,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="X76" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="Y76" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>64898</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>166551</v>
+      </c>
+      <c r="C77" t="s">
+        <v>644</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="J77" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="K77" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
       <c r="L77" t="s">
-        <v>573</v>
+        <v>649</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -8041,56 +8651,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="X77" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="Y77" t="s">
-        <v>574</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>64898</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>166552</v>
+      </c>
+      <c r="C78" t="s">
+        <v>651</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="J78" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="K78" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="L78" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -8108,56 +8722,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="X78" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="Y78" t="s">
-        <v>580</v>
+        <v>657</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>64898</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>166553</v>
+      </c>
+      <c r="C79" t="s">
+        <v>658</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>581</v>
+        <v>659</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>582</v>
+        <v>660</v>
       </c>
       <c r="J79" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="K79" t="s">
-        <v>584</v>
+        <v>662</v>
       </c>
       <c r="L79" t="s">
-        <v>585</v>
+        <v>663</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="n">
@@ -8173,56 +8791,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="X79" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="Y79" t="s">
-        <v>586</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>64898</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>166554</v>
+      </c>
+      <c r="C80" t="s">
+        <v>665</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="J80" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="K80" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="L80" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="n">
@@ -8240,56 +8862,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="X80" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="Y80" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>64898</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>166555</v>
+      </c>
+      <c r="C81" t="s">
+        <v>673</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>594</v>
+        <v>674</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="J81" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="K81" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="L81" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="n">
@@ -8305,56 +8931,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
       <c r="X81" t="s">
-        <v>599</v>
+        <v>679</v>
       </c>
       <c r="Y81" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>64898</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>9574</v>
+      </c>
+      <c r="C82" t="s">
+        <v>681</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>602</v>
+        <v>683</v>
       </c>
       <c r="J82" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="K82" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="L82" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -8366,56 +8996,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="X82" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="Y82" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>64898</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>166556</v>
+      </c>
+      <c r="C83" t="s">
+        <v>688</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>607</v>
+        <v>689</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>608</v>
+        <v>690</v>
       </c>
       <c r="J83" t="s">
-        <v>609</v>
+        <v>691</v>
       </c>
       <c r="K83" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="L83" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8433,56 +9067,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="X83" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
       <c r="Y83" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>64898</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>166557</v>
+      </c>
+      <c r="C84" t="s">
+        <v>697</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>615</v>
+        <v>698</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>616</v>
+        <v>699</v>
       </c>
       <c r="J84" t="s">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="K84" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="L84" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O84" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -8494,56 +9132,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>620</v>
+        <v>703</v>
       </c>
       <c r="X84" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
       <c r="Y84" t="s">
-        <v>622</v>
+        <v>705</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>64898</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>166558</v>
+      </c>
+      <c r="C85" t="s">
+        <v>706</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="J85" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="K85" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="L85" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8559,56 +9201,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>620</v>
+        <v>703</v>
       </c>
       <c r="X85" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
       <c r="Y85" t="s">
-        <v>628</v>
+        <v>712</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>64898</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>166559</v>
+      </c>
+      <c r="C86" t="s">
+        <v>713</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>629</v>
+        <v>714</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>630</v>
+        <v>715</v>
       </c>
       <c r="J86" t="s">
-        <v>631</v>
+        <v>716</v>
       </c>
       <c r="K86" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="L86" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8626,56 +9272,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>634</v>
+        <v>719</v>
       </c>
       <c r="X86" t="s">
-        <v>635</v>
+        <v>720</v>
       </c>
       <c r="Y86" t="s">
-        <v>636</v>
+        <v>721</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>64898</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>166560</v>
+      </c>
+      <c r="C87" t="s">
+        <v>722</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>637</v>
+        <v>723</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
       <c r="J87" t="s">
-        <v>639</v>
+        <v>725</v>
       </c>
       <c r="K87" t="s">
-        <v>640</v>
+        <v>726</v>
       </c>
       <c r="L87" t="s">
-        <v>641</v>
+        <v>727</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O87" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8697,56 +9347,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="X87" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="Y87" t="s">
-        <v>642</v>
+        <v>728</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>64898</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>166561</v>
+      </c>
+      <c r="C88" t="s">
+        <v>729</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>643</v>
+        <v>730</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>644</v>
+        <v>731</v>
       </c>
       <c r="J88" t="s">
-        <v>645</v>
+        <v>732</v>
       </c>
       <c r="K88" t="s">
-        <v>646</v>
+        <v>733</v>
       </c>
       <c r="L88" t="s">
-        <v>647</v>
+        <v>734</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O88" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -8758,56 +9412,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>648</v>
+        <v>735</v>
       </c>
       <c r="X88" t="s">
-        <v>649</v>
+        <v>736</v>
       </c>
       <c r="Y88" t="s">
-        <v>650</v>
+        <v>737</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>64898</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>166562</v>
+      </c>
+      <c r="C89" t="s">
+        <v>738</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>651</v>
+        <v>739</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="J89" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="K89" t="s">
-        <v>654</v>
+        <v>742</v>
       </c>
       <c r="L89" t="s">
-        <v>655</v>
+        <v>743</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O89" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="n">
@@ -8825,56 +9483,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>656</v>
+        <v>744</v>
       </c>
       <c r="X89" t="s">
-        <v>657</v>
+        <v>745</v>
       </c>
       <c r="Y89" t="s">
-        <v>658</v>
+        <v>746</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>64898</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>166563</v>
+      </c>
+      <c r="C90" t="s">
+        <v>747</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>659</v>
+        <v>748</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>660</v>
+        <v>749</v>
       </c>
       <c r="J90" t="s">
-        <v>661</v>
+        <v>750</v>
       </c>
       <c r="K90" t="s">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="L90" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O90" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8896,56 +9558,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="X90" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="Y90" t="s">
-        <v>664</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>64898</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>166564</v>
+      </c>
+      <c r="C91" t="s">
+        <v>754</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>665</v>
+        <v>755</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>666</v>
+        <v>756</v>
       </c>
       <c r="J91" t="s">
-        <v>667</v>
+        <v>757</v>
       </c>
       <c r="K91" t="s">
-        <v>668</v>
+        <v>758</v>
       </c>
       <c r="L91" t="s">
-        <v>669</v>
+        <v>759</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -8957,56 +9623,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>671</v>
+        <v>761</v>
       </c>
       <c r="X91" t="s">
-        <v>672</v>
+        <v>762</v>
       </c>
       <c r="Y91" t="s">
-        <v>673</v>
+        <v>763</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>64898</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>80823</v>
+      </c>
+      <c r="C92" t="s">
+        <v>764</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>674</v>
+        <v>765</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>675</v>
+        <v>766</v>
       </c>
       <c r="J92" t="s">
-        <v>676</v>
+        <v>767</v>
       </c>
       <c r="K92" t="s">
-        <v>677</v>
+        <v>768</v>
       </c>
       <c r="L92" t="s">
-        <v>678</v>
+        <v>769</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="O92" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9024,56 +9694,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>671</v>
+        <v>761</v>
       </c>
       <c r="X92" t="s">
-        <v>672</v>
+        <v>762</v>
       </c>
       <c r="Y92" t="s">
-        <v>679</v>
+        <v>770</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>64898</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>166565</v>
+      </c>
+      <c r="C93" t="s">
+        <v>771</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>680</v>
+        <v>772</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>681</v>
+        <v>773</v>
       </c>
       <c r="J93" t="s">
-        <v>682</v>
+        <v>774</v>
       </c>
       <c r="K93" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L93" t="s">
-        <v>683</v>
+        <v>775</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9091,56 +9765,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>684</v>
+        <v>776</v>
       </c>
       <c r="X93" t="s">
-        <v>685</v>
+        <v>777</v>
       </c>
       <c r="Y93" t="s">
-        <v>686</v>
+        <v>778</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>64898</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>166566</v>
+      </c>
+      <c r="C94" t="s">
+        <v>779</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>687</v>
+        <v>780</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>688</v>
+        <v>781</v>
       </c>
       <c r="J94" t="s">
-        <v>689</v>
+        <v>782</v>
       </c>
       <c r="K94" t="s">
-        <v>690</v>
+        <v>783</v>
       </c>
       <c r="L94" t="s">
-        <v>691</v>
+        <v>784</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="s"/>
@@ -9158,56 +9836,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>692</v>
+        <v>785</v>
       </c>
       <c r="X94" t="s">
-        <v>693</v>
+        <v>786</v>
       </c>
       <c r="Y94" t="s">
-        <v>694</v>
+        <v>787</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>64898</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>166563</v>
+      </c>
+      <c r="C95" t="s">
+        <v>754</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>695</v>
+        <v>788</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>696</v>
+        <v>789</v>
       </c>
       <c r="J95" t="s">
-        <v>697</v>
+        <v>790</v>
       </c>
       <c r="K95" t="s">
-        <v>698</v>
+        <v>791</v>
       </c>
       <c r="L95" t="s">
-        <v>699</v>
+        <v>792</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9229,56 +9911,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="X95" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="Y95" t="s">
-        <v>700</v>
+        <v>793</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>64898</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>166567</v>
+      </c>
+      <c r="C96" t="s">
+        <v>794</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>701</v>
+        <v>795</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>702</v>
+        <v>796</v>
       </c>
       <c r="J96" t="s">
-        <v>703</v>
+        <v>797</v>
       </c>
       <c r="K96" t="s">
-        <v>704</v>
+        <v>798</v>
       </c>
       <c r="L96" t="s">
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="O96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9298,56 +9984,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="X96" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="Y96" t="s">
-        <v>706</v>
+        <v>800</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>64898</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>166568</v>
+      </c>
+      <c r="C97" t="s">
+        <v>801</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>707</v>
+        <v>802</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>708</v>
+        <v>803</v>
       </c>
       <c r="J97" t="s">
-        <v>709</v>
+        <v>804</v>
       </c>
       <c r="K97" t="s">
-        <v>710</v>
+        <v>805</v>
       </c>
       <c r="L97" t="s">
-        <v>711</v>
+        <v>806</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="O97" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9369,56 +10059,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="X97" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="Y97" t="s">
-        <v>712</v>
+        <v>807</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>64898</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>166569</v>
+      </c>
+      <c r="C98" t="s">
+        <v>808</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>713</v>
+        <v>809</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>714</v>
+        <v>810</v>
       </c>
       <c r="J98" t="s">
-        <v>709</v>
+        <v>804</v>
       </c>
       <c r="K98" t="s">
-        <v>715</v>
+        <v>811</v>
       </c>
       <c r="L98" t="s">
-        <v>716</v>
+        <v>812</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="O98" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9440,56 +10134,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>717</v>
+        <v>813</v>
       </c>
       <c r="X98" t="s">
-        <v>718</v>
+        <v>814</v>
       </c>
       <c r="Y98" t="s">
-        <v>719</v>
+        <v>815</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>64898</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>166570</v>
+      </c>
+      <c r="C99" t="s">
+        <v>816</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>720</v>
+        <v>817</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>721</v>
+        <v>818</v>
       </c>
       <c r="J99" t="s">
-        <v>722</v>
+        <v>819</v>
       </c>
       <c r="K99" t="s">
-        <v>723</v>
+        <v>820</v>
       </c>
       <c r="L99" t="s">
-        <v>724</v>
+        <v>821</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9511,56 +10209,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>717</v>
+        <v>813</v>
       </c>
       <c r="X99" t="s">
-        <v>718</v>
+        <v>814</v>
       </c>
       <c r="Y99" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>64898</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>166571</v>
+      </c>
+      <c r="C100" t="s">
+        <v>823</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>726</v>
+        <v>824</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>727</v>
+        <v>825</v>
       </c>
       <c r="J100" t="s">
-        <v>728</v>
+        <v>826</v>
       </c>
       <c r="K100" t="s">
-        <v>729</v>
+        <v>827</v>
       </c>
       <c r="L100" t="s">
-        <v>730</v>
+        <v>828</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>731</v>
+        <v>829</v>
       </c>
       <c r="O100" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9582,56 +10284,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>732</v>
+        <v>830</v>
       </c>
       <c r="X100" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
       <c r="Y100" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>64898</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>14810</v>
+      </c>
+      <c r="C101" t="s">
+        <v>514</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>735</v>
+        <v>833</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
       <c r="J101" t="s">
-        <v>737</v>
+        <v>835</v>
       </c>
       <c r="K101" t="s">
-        <v>738</v>
+        <v>836</v>
       </c>
       <c r="L101" t="s">
-        <v>739</v>
+        <v>837</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="O101" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="s"/>
@@ -9643,56 +10349,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>740</v>
+        <v>838</v>
       </c>
       <c r="X101" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="Y101" t="s">
-        <v>742</v>
+        <v>840</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>64898</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>166572</v>
+      </c>
+      <c r="C102" t="s">
+        <v>841</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>743</v>
+        <v>842</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>744</v>
+        <v>843</v>
       </c>
       <c r="J102" t="s">
-        <v>745</v>
+        <v>844</v>
       </c>
       <c r="K102" t="s">
-        <v>746</v>
+        <v>845</v>
       </c>
       <c r="L102" t="s">
-        <v>747</v>
+        <v>846</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>731</v>
+        <v>829</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9710,56 +10420,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>748</v>
+        <v>847</v>
       </c>
       <c r="X102" t="s">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="Y102" t="s">
-        <v>750</v>
+        <v>849</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>64898</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>166541</v>
+      </c>
+      <c r="C103" t="s">
+        <v>499</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>751</v>
+        <v>850</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>752</v>
+        <v>851</v>
       </c>
       <c r="J103" t="s">
-        <v>753</v>
+        <v>852</v>
       </c>
       <c r="K103" t="s">
-        <v>754</v>
+        <v>853</v>
       </c>
       <c r="L103" t="s">
-        <v>755</v>
+        <v>854</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>731</v>
+        <v>829</v>
       </c>
       <c r="O103" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9781,56 +10495,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="X103" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="Y103" t="s">
-        <v>756</v>
+        <v>855</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>64898</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>166573</v>
+      </c>
+      <c r="C104" t="s">
+        <v>856</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>757</v>
+        <v>857</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>758</v>
+        <v>858</v>
       </c>
       <c r="J104" t="s">
-        <v>759</v>
+        <v>859</v>
       </c>
       <c r="K104" t="s">
-        <v>760</v>
+        <v>860</v>
       </c>
       <c r="L104" t="s">
-        <v>761</v>
+        <v>861</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>731</v>
+        <v>829</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -9842,56 +10560,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>762</v>
+        <v>862</v>
       </c>
       <c r="X104" t="s">
-        <v>763</v>
+        <v>863</v>
       </c>
       <c r="Y104" t="s">
-        <v>764</v>
+        <v>864</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>64898</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>166574</v>
+      </c>
+      <c r="C105" t="s">
+        <v>865</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>765</v>
+        <v>866</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>766</v>
+        <v>867</v>
       </c>
       <c r="J105" t="s">
-        <v>767</v>
+        <v>868</v>
       </c>
       <c r="K105" t="s">
-        <v>768</v>
+        <v>869</v>
       </c>
       <c r="L105" t="s">
-        <v>769</v>
+        <v>870</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>731</v>
+        <v>829</v>
       </c>
       <c r="O105" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9913,56 +10635,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="X105" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="Y105" t="s">
-        <v>770</v>
+        <v>871</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>64898</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>166575</v>
+      </c>
+      <c r="C106" t="s">
+        <v>872</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>771</v>
+        <v>873</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>772</v>
+        <v>874</v>
       </c>
       <c r="J106" t="s">
-        <v>773</v>
+        <v>875</v>
       </c>
       <c r="K106" t="s">
-        <v>774</v>
+        <v>876</v>
       </c>
       <c r="L106" t="s">
-        <v>775</v>
+        <v>877</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>776</v>
+        <v>878</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9984,13 +10710,13 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>732</v>
+        <v>830</v>
       </c>
       <c r="X106" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
       <c r="Y106" t="s">
-        <v>777</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
